--- a/data/Gesamtartenliste.xlsx
+++ b/data/Gesamtartenliste.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7079" uniqueCount="1009">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7091" uniqueCount="1009">
   <si>
     <t xml:space="preserve">Nr</t>
   </si>
@@ -3451,13 +3451,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" recordCount="327" createdVersion="3">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" recordCount="328" createdVersion="3">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:H329" sheet="Artenliste"/>
   </cacheSource>
   <cacheFields count="8">
     <cacheField name="Nr" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="317" count="318">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="318" count="319">
         <n v="1"/>
         <n v="2"/>
         <n v="3"/>
@@ -3775,11 +3775,12 @@
         <n v="315"/>
         <n v="316"/>
         <n v="317"/>
+        <n v="318"/>
         <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="Art" numFmtId="0">
-      <sharedItems count="323">
+      <sharedItems count="324">
         <s v="Alpenbirkenzeisig"/>
         <s v="Alpenbraunelle"/>
         <s v="Alpenstrandläufer"/>
@@ -3939,6 +3940,7 @@
         <s v="Orpheusspötter"/>
         <s v="Ortolan"/>
         <s v="Papageitaucher"/>
+        <s v="Pazifiksegler"/>
         <s v="Pfeifente"/>
         <s v="Pfuhlschnepfe"/>
         <s v="Pirol"/>
@@ -4106,7 +4108,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Species" numFmtId="0">
-      <sharedItems containsBlank="1" count="324">
+      <sharedItems containsBlank="1" count="325">
         <s v="Alpine Accentor"/>
         <s v="Aquatic Warbler"/>
         <s v="Arctic Redpoll"/>
@@ -4329,6 +4331,7 @@
         <s v="Olive-backed Pipit"/>
         <s v="Ortolan Bunting"/>
         <s v="Osprey"/>
+        <s v="Pacific Swift"/>
         <s v="Paddyfield Warbler"/>
         <s v="Pallas's Leaf Warbler"/>
         <s v="Pallid Harrier"/>
@@ -4434,7 +4437,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="wiss. Name" numFmtId="0">
-      <sharedItems containsBlank="1" count="327">
+      <sharedItems containsBlank="1" count="328">
         <s v="Acanthis cabaret"/>
         <s v="Acanthis flammea"/>
         <s v="Acanthis hornemanni"/>
@@ -4478,6 +4481,7 @@
         <s v="Anthus spinoletta"/>
         <s v="Anthus trivialis"/>
         <s v="Apus apus"/>
+        <s v="Apus pacificus"/>
         <s v="Apus pallidus"/>
         <s v="Ardea alba"/>
         <s v="Ardea cinerea"/>
@@ -4814,11 +4818,11 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="327">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="328">
   <r>
     <x v="0"/>
-    <x v="289"/>
-    <x v="285"/>
+    <x v="290"/>
+    <x v="286"/>
     <x v="31"/>
     <x v="0"/>
     <x v="0"/>
@@ -4827,8 +4831,8 @@
   </r>
   <r>
     <x v="1"/>
-    <x v="273"/>
-    <x v="292"/>
+    <x v="274"/>
+    <x v="293"/>
     <x v="33"/>
     <x v="0"/>
     <x v="0"/>
@@ -4838,7 +4842,7 @@
   <r>
     <x v="2"/>
     <x v="128"/>
-    <x v="230"/>
+    <x v="231"/>
     <x v="30"/>
     <x v="0"/>
     <x v="0"/>
@@ -4867,7 +4871,7 @@
   </r>
   <r>
     <x v="5"/>
-    <x v="250"/>
+    <x v="251"/>
     <x v="6"/>
     <x v="32"/>
     <x v="0"/>
@@ -4877,9 +4881,9 @@
   </r>
   <r>
     <x v="6"/>
-    <x v="175"/>
+    <x v="176"/>
     <x v="35"/>
-    <x v="57"/>
+    <x v="58"/>
     <x v="0"/>
     <x v="0"/>
     <x v="7"/>
@@ -4887,9 +4891,9 @@
   </r>
   <r>
     <x v="7"/>
-    <x v="300"/>
+    <x v="301"/>
     <x v="10"/>
-    <x v="59"/>
+    <x v="60"/>
     <x v="0"/>
     <x v="0"/>
     <x v="3"/>
@@ -4899,7 +4903,7 @@
     <x v="8"/>
     <x v="107"/>
     <x v="38"/>
-    <x v="58"/>
+    <x v="59"/>
     <x v="0"/>
     <x v="0"/>
     <x v="6"/>
@@ -4907,9 +4911,9 @@
   </r>
   <r>
     <x v="9"/>
-    <x v="186"/>
-    <x v="241"/>
-    <x v="60"/>
+    <x v="187"/>
+    <x v="242"/>
+    <x v="61"/>
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
@@ -4919,7 +4923,7 @@
     <x v="10"/>
     <x v="101"/>
     <x v="210"/>
-    <x v="120"/>
+    <x v="121"/>
     <x v="6"/>
     <x v="6"/>
     <x v="2"/>
@@ -4927,9 +4931,9 @@
   </r>
   <r>
     <x v="11"/>
-    <x v="318"/>
-    <x v="293"/>
-    <x v="118"/>
+    <x v="319"/>
+    <x v="294"/>
+    <x v="119"/>
     <x v="0"/>
     <x v="6"/>
     <x v="7"/>
@@ -4937,9 +4941,9 @@
   </r>
   <r>
     <x v="12"/>
-    <x v="230"/>
-    <x v="312"/>
-    <x v="119"/>
+    <x v="231"/>
+    <x v="313"/>
+    <x v="120"/>
     <x v="0"/>
     <x v="6"/>
     <x v="3"/>
@@ -4957,9 +4961,9 @@
   </r>
   <r>
     <x v="14"/>
-    <x v="183"/>
-    <x v="257"/>
-    <x v="301"/>
+    <x v="184"/>
+    <x v="258"/>
+    <x v="302"/>
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
@@ -4969,7 +4973,7 @@
     <x v="15"/>
     <x v="30"/>
     <x v="75"/>
-    <x v="302"/>
+    <x v="303"/>
     <x v="6"/>
     <x v="0"/>
     <x v="3"/>
@@ -5007,7 +5011,7 @@
   </r>
   <r>
     <x v="19"/>
-    <x v="207"/>
+    <x v="208"/>
     <x v="138"/>
     <x v="27"/>
     <x v="6"/>
@@ -5017,7 +5021,7 @@
   </r>
   <r>
     <x v="20"/>
-    <x v="159"/>
+    <x v="160"/>
     <x v="116"/>
     <x v="24"/>
     <x v="0"/>
@@ -5027,7 +5031,7 @@
   </r>
   <r>
     <x v="21"/>
-    <x v="247"/>
+    <x v="248"/>
     <x v="197"/>
     <x v="25"/>
     <x v="6"/>
@@ -5037,7 +5041,7 @@
   </r>
   <r>
     <x v="22"/>
-    <x v="236"/>
+    <x v="237"/>
     <x v="215"/>
     <x v="21"/>
     <x v="0"/>
@@ -5057,9 +5061,9 @@
   </r>
   <r>
     <x v="24"/>
-    <x v="256"/>
+    <x v="257"/>
     <x v="66"/>
-    <x v="51"/>
+    <x v="52"/>
     <x v="0"/>
     <x v="0"/>
     <x v="5"/>
@@ -5067,9 +5071,9 @@
   </r>
   <r>
     <x v="25"/>
-    <x v="177"/>
-    <x v="252"/>
-    <x v="50"/>
+    <x v="178"/>
+    <x v="253"/>
+    <x v="51"/>
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
@@ -5079,7 +5083,7 @@
     <x v="26"/>
     <x v="145"/>
     <x v="135"/>
-    <x v="54"/>
+    <x v="55"/>
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
@@ -5087,9 +5091,9 @@
   </r>
   <r>
     <x v="27"/>
-    <x v="173"/>
-    <x v="291"/>
-    <x v="52"/>
+    <x v="174"/>
+    <x v="292"/>
+    <x v="53"/>
     <x v="0"/>
     <x v="6"/>
     <x v="3"/>
@@ -5099,7 +5103,7 @@
     <x v="28"/>
     <x v="14"/>
     <x v="152"/>
-    <x v="53"/>
+    <x v="54"/>
     <x v="0"/>
     <x v="1"/>
     <x v="2"/>
@@ -5107,9 +5111,9 @@
   </r>
   <r>
     <x v="29"/>
-    <x v="201"/>
-    <x v="282"/>
-    <x v="257"/>
+    <x v="202"/>
+    <x v="283"/>
+    <x v="258"/>
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
@@ -5117,9 +5121,9 @@
   </r>
   <r>
     <x v="30"/>
-    <x v="163"/>
+    <x v="164"/>
     <x v="174"/>
-    <x v="279"/>
+    <x v="280"/>
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
@@ -5129,7 +5133,7 @@
     <x v="31"/>
     <x v="48"/>
     <x v="51"/>
-    <x v="278"/>
+    <x v="279"/>
     <x v="3"/>
     <x v="2"/>
     <x v="7"/>
@@ -5137,9 +5141,9 @@
   </r>
   <r>
     <x v="32"/>
-    <x v="196"/>
-    <x v="295"/>
-    <x v="199"/>
+    <x v="197"/>
+    <x v="296"/>
+    <x v="200"/>
     <x v="0"/>
     <x v="1"/>
     <x v="3"/>
@@ -5147,9 +5151,9 @@
   </r>
   <r>
     <x v="33"/>
-    <x v="268"/>
+    <x v="269"/>
     <x v="74"/>
-    <x v="200"/>
+    <x v="201"/>
     <x v="0"/>
     <x v="1"/>
     <x v="2"/>
@@ -5159,7 +5163,7 @@
     <x v="34"/>
     <x v="49"/>
     <x v="194"/>
-    <x v="103"/>
+    <x v="104"/>
     <x v="0"/>
     <x v="1"/>
     <x v="2"/>
@@ -5167,9 +5171,9 @@
   </r>
   <r>
     <x v="35"/>
-    <x v="202"/>
+    <x v="203"/>
     <x v="53"/>
-    <x v="62"/>
+    <x v="63"/>
     <x v="6"/>
     <x v="6"/>
     <x v="3"/>
@@ -5177,9 +5181,9 @@
   </r>
   <r>
     <x v="36"/>
-    <x v="315"/>
-    <x v="273"/>
-    <x v="201"/>
+    <x v="316"/>
+    <x v="274"/>
+    <x v="202"/>
     <x v="0"/>
     <x v="4"/>
     <x v="0"/>
@@ -5189,7 +5193,7 @@
     <x v="37"/>
     <x v="68"/>
     <x v="61"/>
-    <x v="202"/>
+    <x v="203"/>
     <x v="6"/>
     <x v="6"/>
     <x v="3"/>
@@ -5198,8 +5202,8 @@
   <r>
     <x v="38"/>
     <x v="143"/>
-    <x v="242"/>
-    <x v="203"/>
+    <x v="243"/>
+    <x v="204"/>
     <x v="4"/>
     <x v="6"/>
     <x v="3"/>
@@ -5207,9 +5211,9 @@
   </r>
   <r>
     <x v="39"/>
-    <x v="281"/>
+    <x v="282"/>
     <x v="67"/>
-    <x v="114"/>
+    <x v="115"/>
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
@@ -5219,7 +5223,7 @@
     <x v="40"/>
     <x v="105"/>
     <x v="64"/>
-    <x v="233"/>
+    <x v="234"/>
     <x v="6"/>
     <x v="0"/>
     <x v="0"/>
@@ -5227,9 +5231,9 @@
   </r>
   <r>
     <x v="41"/>
-    <x v="245"/>
-    <x v="247"/>
-    <x v="155"/>
+    <x v="246"/>
+    <x v="248"/>
+    <x v="156"/>
     <x v="0"/>
     <x v="6"/>
     <x v="3"/>
@@ -5237,9 +5241,9 @@
   </r>
   <r>
     <x v="42"/>
-    <x v="164"/>
+    <x v="165"/>
     <x v="24"/>
-    <x v="153"/>
+    <x v="154"/>
     <x v="0"/>
     <x v="6"/>
     <x v="3"/>
@@ -5249,7 +5253,7 @@
     <x v="43"/>
     <x v="51"/>
     <x v="60"/>
-    <x v="154"/>
+    <x v="155"/>
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
@@ -5258,8 +5262,8 @@
   <r>
     <x v="44"/>
     <x v="74"/>
-    <x v="319"/>
-    <x v="152"/>
+    <x v="320"/>
+    <x v="153"/>
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
@@ -5267,9 +5271,9 @@
   </r>
   <r>
     <x v="45"/>
-    <x v="321"/>
+    <x v="322"/>
     <x v="188"/>
-    <x v="300"/>
+    <x v="301"/>
     <x v="0"/>
     <x v="6"/>
     <x v="5"/>
@@ -5279,7 +5283,7 @@
     <x v="46"/>
     <x v="154"/>
     <x v="165"/>
-    <x v="252"/>
+    <x v="253"/>
     <x v="0"/>
     <x v="6"/>
     <x v="3"/>
@@ -5287,9 +5291,9 @@
   </r>
   <r>
     <x v="47"/>
-    <x v="187"/>
-    <x v="245"/>
-    <x v="254"/>
+    <x v="188"/>
+    <x v="246"/>
+    <x v="255"/>
     <x v="0"/>
     <x v="6"/>
     <x v="3"/>
@@ -5299,7 +5303,7 @@
     <x v="48"/>
     <x v="95"/>
     <x v="144"/>
-    <x v="253"/>
+    <x v="254"/>
     <x v="0"/>
     <x v="6"/>
     <x v="3"/>
@@ -5307,9 +5311,9 @@
   </r>
   <r>
     <x v="49"/>
-    <x v="212"/>
+    <x v="213"/>
     <x v="22"/>
-    <x v="255"/>
+    <x v="256"/>
     <x v="0"/>
     <x v="0"/>
     <x v="5"/>
@@ -5317,9 +5321,9 @@
   </r>
   <r>
     <x v="50"/>
-    <x v="252"/>
+    <x v="253"/>
     <x v="133"/>
-    <x v="163"/>
+    <x v="164"/>
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
@@ -5327,9 +5331,9 @@
   </r>
   <r>
     <x v="51"/>
-    <x v="218"/>
+    <x v="219"/>
     <x v="16"/>
-    <x v="96"/>
+    <x v="97"/>
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
@@ -5337,9 +5341,9 @@
   </r>
   <r>
     <x v="52"/>
-    <x v="299"/>
-    <x v="306"/>
-    <x v="95"/>
+    <x v="300"/>
+    <x v="307"/>
+    <x v="96"/>
     <x v="0"/>
     <x v="0"/>
     <x v="5"/>
@@ -5349,7 +5353,7 @@
     <x v="53"/>
     <x v="9"/>
     <x v="211"/>
-    <x v="208"/>
+    <x v="209"/>
     <x v="0"/>
     <x v="0"/>
     <x v="5"/>
@@ -5359,7 +5363,7 @@
     <x v="54"/>
     <x v="121"/>
     <x v="143"/>
-    <x v="230"/>
+    <x v="231"/>
     <x v="6"/>
     <x v="2"/>
     <x v="2"/>
@@ -5369,7 +5373,7 @@
     <x v="55"/>
     <x v="124"/>
     <x v="131"/>
-    <x v="229"/>
+    <x v="230"/>
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
@@ -5377,9 +5381,9 @@
   </r>
   <r>
     <x v="56"/>
-    <x v="179"/>
+    <x v="180"/>
     <x v="91"/>
-    <x v="56"/>
+    <x v="57"/>
     <x v="0"/>
     <x v="0"/>
     <x v="6"/>
@@ -5387,9 +5391,9 @@
   </r>
   <r>
     <x v="57"/>
-    <x v="313"/>
+    <x v="314"/>
     <x v="183"/>
-    <x v="168"/>
+    <x v="169"/>
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
@@ -5399,7 +5403,7 @@
     <x v="58"/>
     <x v="84"/>
     <x v="157"/>
-    <x v="45"/>
+    <x v="46"/>
     <x v="0"/>
     <x v="6"/>
     <x v="3"/>
@@ -5407,9 +5411,9 @@
   </r>
   <r>
     <x v="59"/>
-    <x v="228"/>
+    <x v="229"/>
     <x v="145"/>
-    <x v="44"/>
+    <x v="45"/>
     <x v="0"/>
     <x v="0"/>
     <x v="6"/>
@@ -5417,9 +5421,9 @@
   </r>
   <r>
     <x v="60"/>
-    <x v="222"/>
+    <x v="223"/>
     <x v="187"/>
-    <x v="125"/>
+    <x v="126"/>
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
@@ -5427,9 +5431,9 @@
   </r>
   <r>
     <x v="61"/>
-    <x v="166"/>
-    <x v="281"/>
-    <x v="46"/>
+    <x v="167"/>
+    <x v="282"/>
+    <x v="47"/>
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
@@ -5439,7 +5443,7 @@
     <x v="62"/>
     <x v="63"/>
     <x v="221"/>
-    <x v="221"/>
+    <x v="222"/>
     <x v="0"/>
     <x v="0"/>
     <x v="7"/>
@@ -5447,9 +5451,9 @@
   </r>
   <r>
     <x v="63"/>
-    <x v="302"/>
+    <x v="303"/>
     <x v="125"/>
-    <x v="228"/>
+    <x v="229"/>
     <x v="0"/>
     <x v="0"/>
     <x v="7"/>
@@ -5459,7 +5463,7 @@
     <x v="64"/>
     <x v="78"/>
     <x v="25"/>
-    <x v="126"/>
+    <x v="127"/>
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
@@ -5467,9 +5471,9 @@
   </r>
   <r>
     <x v="65"/>
-    <x v="191"/>
-    <x v="236"/>
-    <x v="206"/>
+    <x v="192"/>
+    <x v="237"/>
+    <x v="207"/>
     <x v="0"/>
     <x v="0"/>
     <x v="7"/>
@@ -5477,9 +5481,9 @@
   </r>
   <r>
     <x v="66"/>
-    <x v="215"/>
+    <x v="216"/>
     <x v="14"/>
-    <x v="205"/>
+    <x v="206"/>
     <x v="0"/>
     <x v="0"/>
     <x v="6"/>
@@ -5487,9 +5491,9 @@
   </r>
   <r>
     <x v="67"/>
-    <x v="219"/>
-    <x v="308"/>
-    <x v="158"/>
+    <x v="220"/>
+    <x v="309"/>
+    <x v="159"/>
     <x v="0"/>
     <x v="3"/>
     <x v="7"/>
@@ -5497,9 +5501,9 @@
   </r>
   <r>
     <x v="68"/>
-    <x v="181"/>
-    <x v="300"/>
-    <x v="98"/>
+    <x v="182"/>
+    <x v="301"/>
+    <x v="99"/>
     <x v="0"/>
     <x v="0"/>
     <x v="7"/>
@@ -5509,7 +5513,7 @@
     <x v="69"/>
     <x v="122"/>
     <x v="213"/>
-    <x v="99"/>
+    <x v="100"/>
     <x v="0"/>
     <x v="0"/>
     <x v="7"/>
@@ -5517,9 +5521,9 @@
   </r>
   <r>
     <x v="70"/>
-    <x v="244"/>
-    <x v="224"/>
-    <x v="100"/>
+    <x v="245"/>
+    <x v="225"/>
+    <x v="101"/>
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
@@ -5527,9 +5531,9 @@
   </r>
   <r>
     <x v="71"/>
-    <x v="305"/>
+    <x v="306"/>
     <x v="208"/>
-    <x v="101"/>
+    <x v="102"/>
     <x v="0"/>
     <x v="0"/>
     <x v="6"/>
@@ -5537,7 +5541,7 @@
   </r>
   <r>
     <x v="72"/>
-    <x v="234"/>
+    <x v="235"/>
     <x v="112"/>
     <x v="4"/>
     <x v="0"/>
@@ -5559,7 +5563,7 @@
     <x v="74"/>
     <x v="137"/>
     <x v="46"/>
-    <x v="64"/>
+    <x v="65"/>
     <x v="0"/>
     <x v="6"/>
     <x v="3"/>
@@ -5567,9 +5571,9 @@
   </r>
   <r>
     <x v="75"/>
-    <x v="170"/>
-    <x v="256"/>
-    <x v="65"/>
+    <x v="171"/>
+    <x v="257"/>
+    <x v="66"/>
     <x v="0"/>
     <x v="6"/>
     <x v="7"/>
@@ -5577,9 +5581,9 @@
   </r>
   <r>
     <x v="76"/>
-    <x v="210"/>
+    <x v="211"/>
     <x v="179"/>
-    <x v="102"/>
+    <x v="103"/>
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
@@ -5587,9 +5591,9 @@
   </r>
   <r>
     <x v="77"/>
-    <x v="311"/>
+    <x v="312"/>
     <x v="31"/>
-    <x v="159"/>
+    <x v="160"/>
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
@@ -5597,9 +5601,9 @@
   </r>
   <r>
     <x v="78"/>
-    <x v="276"/>
+    <x v="277"/>
     <x v="57"/>
-    <x v="138"/>
+    <x v="139"/>
     <x v="0"/>
     <x v="6"/>
     <x v="3"/>
@@ -5607,9 +5611,9 @@
   </r>
   <r>
     <x v="79"/>
-    <x v="185"/>
-    <x v="244"/>
-    <x v="139"/>
+    <x v="186"/>
+    <x v="245"/>
+    <x v="140"/>
     <x v="0"/>
     <x v="0"/>
     <x v="6"/>
@@ -5619,7 +5623,7 @@
     <x v="80"/>
     <x v="140"/>
     <x v="205"/>
-    <x v="135"/>
+    <x v="136"/>
     <x v="0"/>
     <x v="0"/>
     <x v="7"/>
@@ -5629,7 +5633,7 @@
     <x v="81"/>
     <x v="10"/>
     <x v="100"/>
-    <x v="137"/>
+    <x v="138"/>
     <x v="0"/>
     <x v="0"/>
     <x v="3"/>
@@ -5637,9 +5641,9 @@
   </r>
   <r>
     <x v="82"/>
-    <x v="292"/>
-    <x v="228"/>
-    <x v="136"/>
+    <x v="293"/>
+    <x v="229"/>
+    <x v="137"/>
     <x v="0"/>
     <x v="3"/>
     <x v="6"/>
@@ -5647,9 +5651,9 @@
   </r>
   <r>
     <x v="83"/>
-    <x v="322"/>
+    <x v="323"/>
     <x v="185"/>
-    <x v="304"/>
+    <x v="305"/>
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
@@ -5657,9 +5661,9 @@
   </r>
   <r>
     <x v="84"/>
-    <x v="282"/>
+    <x v="283"/>
     <x v="84"/>
-    <x v="115"/>
+    <x v="116"/>
     <x v="6"/>
     <x v="0"/>
     <x v="0"/>
@@ -5667,9 +5671,9 @@
   </r>
   <r>
     <x v="85"/>
-    <x v="294"/>
-    <x v="297"/>
-    <x v="263"/>
+    <x v="295"/>
+    <x v="298"/>
+    <x v="264"/>
     <x v="1"/>
     <x v="5"/>
     <x v="7"/>
@@ -5679,7 +5683,7 @@
     <x v="86"/>
     <x v="115"/>
     <x v="186"/>
-    <x v="323"/>
+    <x v="324"/>
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
@@ -5687,9 +5691,9 @@
   </r>
   <r>
     <x v="87"/>
-    <x v="274"/>
-    <x v="277"/>
-    <x v="258"/>
+    <x v="275"/>
+    <x v="278"/>
+    <x v="259"/>
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
@@ -5697,9 +5701,9 @@
   </r>
   <r>
     <x v="88"/>
-    <x v="261"/>
+    <x v="262"/>
     <x v="104"/>
-    <x v="150"/>
+    <x v="151"/>
     <x v="4"/>
     <x v="0"/>
     <x v="0"/>
@@ -5709,7 +5713,7 @@
     <x v="89"/>
     <x v="23"/>
     <x v="96"/>
-    <x v="146"/>
+    <x v="147"/>
     <x v="0"/>
     <x v="4"/>
     <x v="0"/>
@@ -5719,7 +5723,7 @@
     <x v="90"/>
     <x v="125"/>
     <x v="49"/>
-    <x v="156"/>
+    <x v="157"/>
     <x v="0"/>
     <x v="0"/>
     <x v="3"/>
@@ -5727,9 +5731,9 @@
   </r>
   <r>
     <x v="91"/>
-    <x v="271"/>
+    <x v="272"/>
     <x v="113"/>
-    <x v="63"/>
+    <x v="64"/>
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
@@ -5739,7 +5743,7 @@
     <x v="92"/>
     <x v="110"/>
     <x v="214"/>
-    <x v="322"/>
+    <x v="323"/>
     <x v="0"/>
     <x v="0"/>
     <x v="3"/>
@@ -5749,7 +5753,7 @@
     <x v="93"/>
     <x v="111"/>
     <x v="158"/>
-    <x v="251"/>
+    <x v="252"/>
     <x v="0"/>
     <x v="0"/>
     <x v="7"/>
@@ -5759,7 +5763,7 @@
     <x v="94"/>
     <x v="81"/>
     <x v="121"/>
-    <x v="250"/>
+    <x v="251"/>
     <x v="0"/>
     <x v="0"/>
     <x v="7"/>
@@ -5767,9 +5771,9 @@
   </r>
   <r>
     <x v="95"/>
-    <x v="220"/>
+    <x v="221"/>
     <x v="173"/>
-    <x v="86"/>
+    <x v="87"/>
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
@@ -5777,9 +5781,9 @@
   </r>
   <r>
     <x v="96"/>
-    <x v="199"/>
+    <x v="200"/>
     <x v="71"/>
-    <x v="88"/>
+    <x v="89"/>
     <x v="0"/>
     <x v="0"/>
     <x v="7"/>
@@ -5789,7 +5793,7 @@
     <x v="97"/>
     <x v="65"/>
     <x v="190"/>
-    <x v="87"/>
+    <x v="88"/>
     <x v="0"/>
     <x v="0"/>
     <x v="6"/>
@@ -5799,7 +5803,7 @@
     <x v="98"/>
     <x v="146"/>
     <x v="98"/>
-    <x v="89"/>
+    <x v="90"/>
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
@@ -5809,7 +5813,7 @@
     <x v="99"/>
     <x v="4"/>
     <x v="106"/>
-    <x v="157"/>
+    <x v="158"/>
     <x v="6"/>
     <x v="0"/>
     <x v="7"/>
@@ -5817,9 +5821,9 @@
   </r>
   <r>
     <x v="100"/>
-    <x v="195"/>
-    <x v="229"/>
-    <x v="264"/>
+    <x v="196"/>
+    <x v="230"/>
+    <x v="265"/>
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
@@ -5837,9 +5841,9 @@
   </r>
   <r>
     <x v="102"/>
-    <x v="291"/>
+    <x v="292"/>
     <x v="155"/>
-    <x v="309"/>
+    <x v="310"/>
     <x v="0"/>
     <x v="0"/>
     <x v="3"/>
@@ -5848,8 +5852,8 @@
   <r>
     <x v="103"/>
     <x v="46"/>
-    <x v="280"/>
-    <x v="306"/>
+    <x v="281"/>
+    <x v="307"/>
     <x v="0"/>
     <x v="0"/>
     <x v="6"/>
@@ -5859,7 +5863,7 @@
     <x v="104"/>
     <x v="89"/>
     <x v="55"/>
-    <x v="308"/>
+    <x v="309"/>
     <x v="0"/>
     <x v="0"/>
     <x v="3"/>
@@ -5867,9 +5871,9 @@
   </r>
   <r>
     <x v="105"/>
-    <x v="263"/>
+    <x v="264"/>
     <x v="199"/>
-    <x v="310"/>
+    <x v="311"/>
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
@@ -5878,8 +5882,8 @@
   <r>
     <x v="106"/>
     <x v="34"/>
-    <x v="315"/>
-    <x v="307"/>
+    <x v="316"/>
+    <x v="308"/>
     <x v="0"/>
     <x v="0"/>
     <x v="3"/>
@@ -5887,9 +5891,9 @@
   </r>
   <r>
     <x v="107"/>
-    <x v="192"/>
+    <x v="193"/>
     <x v="68"/>
-    <x v="311"/>
+    <x v="312"/>
     <x v="0"/>
     <x v="0"/>
     <x v="3"/>
@@ -5897,9 +5901,9 @@
   </r>
   <r>
     <x v="108"/>
-    <x v="172"/>
-    <x v="303"/>
-    <x v="216"/>
+    <x v="173"/>
+    <x v="304"/>
+    <x v="217"/>
     <x v="0"/>
     <x v="0"/>
     <x v="7"/>
@@ -5909,7 +5913,7 @@
     <x v="109"/>
     <x v="86"/>
     <x v="97"/>
-    <x v="215"/>
+    <x v="216"/>
     <x v="0"/>
     <x v="0"/>
     <x v="3"/>
@@ -5917,9 +5921,9 @@
   </r>
   <r>
     <x v="110"/>
-    <x v="278"/>
+    <x v="279"/>
     <x v="23"/>
-    <x v="185"/>
+    <x v="186"/>
     <x v="0"/>
     <x v="0"/>
     <x v="6"/>
@@ -5927,9 +5931,9 @@
   </r>
   <r>
     <x v="111"/>
-    <x v="160"/>
+    <x v="161"/>
     <x v="7"/>
-    <x v="184"/>
+    <x v="185"/>
     <x v="0"/>
     <x v="0"/>
     <x v="6"/>
@@ -5937,9 +5941,9 @@
   </r>
   <r>
     <x v="112"/>
-    <x v="242"/>
-    <x v="258"/>
-    <x v="47"/>
+    <x v="243"/>
+    <x v="259"/>
+    <x v="48"/>
     <x v="0"/>
     <x v="0"/>
     <x v="7"/>
@@ -5948,8 +5952,8 @@
   <r>
     <x v="113"/>
     <x v="118"/>
-    <x v="237"/>
-    <x v="70"/>
+    <x v="238"/>
+    <x v="71"/>
     <x v="0"/>
     <x v="0"/>
     <x v="6"/>
@@ -5957,9 +5961,9 @@
   </r>
   <r>
     <x v="114"/>
-    <x v="198"/>
-    <x v="262"/>
-    <x v="68"/>
+    <x v="199"/>
+    <x v="263"/>
+    <x v="69"/>
     <x v="0"/>
     <x v="0"/>
     <x v="7"/>
@@ -5967,9 +5971,9 @@
   </r>
   <r>
     <x v="115"/>
-    <x v="320"/>
+    <x v="321"/>
     <x v="191"/>
-    <x v="74"/>
+    <x v="75"/>
     <x v="0"/>
     <x v="0"/>
     <x v="6"/>
@@ -5977,9 +5981,9 @@
   </r>
   <r>
     <x v="116"/>
-    <x v="264"/>
-    <x v="288"/>
-    <x v="76"/>
+    <x v="265"/>
+    <x v="289"/>
+    <x v="77"/>
     <x v="0"/>
     <x v="0"/>
     <x v="6"/>
@@ -5988,8 +5992,8 @@
   <r>
     <x v="117"/>
     <x v="138"/>
-    <x v="232"/>
-    <x v="73"/>
+    <x v="233"/>
+    <x v="74"/>
     <x v="0"/>
     <x v="4"/>
     <x v="6"/>
@@ -5999,7 +6003,7 @@
     <x v="118"/>
     <x v="2"/>
     <x v="87"/>
-    <x v="69"/>
+    <x v="70"/>
     <x v="0"/>
     <x v="6"/>
     <x v="7"/>
@@ -6007,9 +6011,9 @@
   </r>
   <r>
     <x v="119"/>
-    <x v="226"/>
+    <x v="227"/>
     <x v="86"/>
-    <x v="72"/>
+    <x v="73"/>
     <x v="0"/>
     <x v="0"/>
     <x v="6"/>
@@ -6017,9 +6021,9 @@
   </r>
   <r>
     <x v="120"/>
-    <x v="253"/>
+    <x v="254"/>
     <x v="36"/>
-    <x v="71"/>
+    <x v="72"/>
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
@@ -6028,8 +6032,8 @@
   <r>
     <x v="121"/>
     <x v="106"/>
-    <x v="259"/>
-    <x v="75"/>
+    <x v="260"/>
+    <x v="76"/>
     <x v="0"/>
     <x v="0"/>
     <x v="6"/>
@@ -6037,9 +6041,9 @@
   </r>
   <r>
     <x v="122"/>
-    <x v="317"/>
+    <x v="318"/>
     <x v="172"/>
-    <x v="195"/>
+    <x v="196"/>
     <x v="0"/>
     <x v="4"/>
     <x v="7"/>
@@ -6049,7 +6053,7 @@
     <x v="123"/>
     <x v="41"/>
     <x v="149"/>
-    <x v="149"/>
+    <x v="150"/>
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
@@ -6059,7 +6063,7 @@
     <x v="124"/>
     <x v="12"/>
     <x v="76"/>
-    <x v="148"/>
+    <x v="149"/>
     <x v="0"/>
     <x v="4"/>
     <x v="3"/>
@@ -6067,9 +6071,9 @@
   </r>
   <r>
     <x v="125"/>
-    <x v="290"/>
+    <x v="291"/>
     <x v="117"/>
-    <x v="275"/>
+    <x v="276"/>
     <x v="0"/>
     <x v="5"/>
     <x v="3"/>
@@ -6078,8 +6082,8 @@
   <r>
     <x v="126"/>
     <x v="152"/>
-    <x v="246"/>
-    <x v="232"/>
+    <x v="247"/>
+    <x v="233"/>
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
@@ -6087,9 +6091,9 @@
   </r>
   <r>
     <x v="127"/>
-    <x v="265"/>
-    <x v="238"/>
-    <x v="231"/>
+    <x v="266"/>
+    <x v="239"/>
+    <x v="232"/>
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
@@ -6099,7 +6103,7 @@
     <x v="128"/>
     <x v="43"/>
     <x v="21"/>
-    <x v="269"/>
+    <x v="270"/>
     <x v="0"/>
     <x v="0"/>
     <x v="5"/>
@@ -6109,7 +6113,7 @@
     <x v="129"/>
     <x v="131"/>
     <x v="19"/>
-    <x v="94"/>
+    <x v="95"/>
     <x v="6"/>
     <x v="6"/>
     <x v="2"/>
@@ -6117,9 +6121,9 @@
   </r>
   <r>
     <x v="130"/>
-    <x v="314"/>
+    <x v="315"/>
     <x v="189"/>
-    <x v="164"/>
+    <x v="165"/>
     <x v="0"/>
     <x v="6"/>
     <x v="3"/>
@@ -6127,9 +6131,9 @@
   </r>
   <r>
     <x v="131"/>
-    <x v="214"/>
+    <x v="215"/>
     <x v="203"/>
-    <x v="166"/>
+    <x v="167"/>
     <x v="6"/>
     <x v="0"/>
     <x v="6"/>
@@ -6137,9 +6141,9 @@
   </r>
   <r>
     <x v="132"/>
-    <x v="251"/>
+    <x v="252"/>
     <x v="206"/>
-    <x v="179"/>
+    <x v="180"/>
     <x v="6"/>
     <x v="6"/>
     <x v="2"/>
@@ -6147,9 +6151,9 @@
   </r>
   <r>
     <x v="133"/>
-    <x v="227"/>
+    <x v="228"/>
     <x v="163"/>
-    <x v="177"/>
+    <x v="178"/>
     <x v="2"/>
     <x v="6"/>
     <x v="2"/>
@@ -6158,8 +6162,8 @@
   <r>
     <x v="134"/>
     <x v="142"/>
-    <x v="321"/>
-    <x v="183"/>
+    <x v="322"/>
+    <x v="184"/>
     <x v="0"/>
     <x v="6"/>
     <x v="6"/>
@@ -6167,9 +6171,9 @@
   </r>
   <r>
     <x v="135"/>
-    <x v="243"/>
+    <x v="244"/>
     <x v="40"/>
-    <x v="178"/>
+    <x v="179"/>
     <x v="0"/>
     <x v="6"/>
     <x v="7"/>
@@ -6179,27 +6183,27 @@
     <x v="136"/>
     <x v="100"/>
     <x v="176"/>
-    <x v="180"/>
+    <x v="181"/>
     <x v="6"/>
     <x v="0"/>
     <x v="7"/>
     <x v="6"/>
   </r>
   <r>
-    <x v="317"/>
+    <x v="318"/>
     <x v="6"/>
     <x v="5"/>
-    <x v="171"/>
+    <x v="172"/>
     <x v="0"/>
     <x v="0"/>
     <x v="6"/>
     <x v="6"/>
   </r>
   <r>
-    <x v="317"/>
+    <x v="318"/>
     <x v="100"/>
     <x v="176"/>
-    <x v="170"/>
+    <x v="171"/>
     <x v="6"/>
     <x v="0"/>
     <x v="7"/>
@@ -6209,7 +6213,7 @@
     <x v="137"/>
     <x v="50"/>
     <x v="141"/>
-    <x v="181"/>
+    <x v="182"/>
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
@@ -6219,7 +6223,7 @@
     <x v="138"/>
     <x v="134"/>
     <x v="142"/>
-    <x v="182"/>
+    <x v="183"/>
     <x v="6"/>
     <x v="6"/>
     <x v="2"/>
@@ -6227,9 +6231,9 @@
   </r>
   <r>
     <x v="139"/>
-    <x v="319"/>
+    <x v="320"/>
     <x v="192"/>
-    <x v="287"/>
+    <x v="288"/>
     <x v="0"/>
     <x v="0"/>
     <x v="7"/>
@@ -6237,9 +6241,9 @@
   </r>
   <r>
     <x v="140"/>
-    <x v="167"/>
+    <x v="168"/>
     <x v="41"/>
-    <x v="165"/>
+    <x v="166"/>
     <x v="0"/>
     <x v="0"/>
     <x v="7"/>
@@ -6247,9 +6251,9 @@
   </r>
   <r>
     <x v="141"/>
-    <x v="270"/>
+    <x v="271"/>
     <x v="17"/>
-    <x v="92"/>
+    <x v="93"/>
     <x v="0"/>
     <x v="0"/>
     <x v="3"/>
@@ -6257,9 +6261,9 @@
   </r>
   <r>
     <x v="142"/>
-    <x v="298"/>
-    <x v="310"/>
-    <x v="91"/>
+    <x v="299"/>
+    <x v="311"/>
+    <x v="92"/>
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
@@ -6267,9 +6271,9 @@
   </r>
   <r>
     <x v="143"/>
-    <x v="297"/>
-    <x v="305"/>
-    <x v="90"/>
+    <x v="298"/>
+    <x v="306"/>
+    <x v="91"/>
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
@@ -6279,7 +6283,7 @@
     <x v="144"/>
     <x v="66"/>
     <x v="80"/>
-    <x v="285"/>
+    <x v="286"/>
     <x v="6"/>
     <x v="0"/>
     <x v="3"/>
@@ -6289,7 +6293,7 @@
     <x v="145"/>
     <x v="130"/>
     <x v="3"/>
-    <x v="286"/>
+    <x v="287"/>
     <x v="6"/>
     <x v="0"/>
     <x v="7"/>
@@ -6298,8 +6302,8 @@
   <r>
     <x v="146"/>
     <x v="31"/>
-    <x v="263"/>
-    <x v="305"/>
+    <x v="264"/>
+    <x v="306"/>
     <x v="6"/>
     <x v="0"/>
     <x v="2"/>
@@ -6307,9 +6311,9 @@
   </r>
   <r>
     <x v="147"/>
-    <x v="231"/>
+    <x v="232"/>
     <x v="148"/>
-    <x v="284"/>
+    <x v="285"/>
     <x v="0"/>
     <x v="0"/>
     <x v="5"/>
@@ -6317,9 +6321,9 @@
   </r>
   <r>
     <x v="148"/>
-    <x v="233"/>
-    <x v="231"/>
-    <x v="283"/>
+    <x v="234"/>
+    <x v="232"/>
+    <x v="284"/>
     <x v="0"/>
     <x v="0"/>
     <x v="6"/>
@@ -6327,9 +6331,9 @@
   </r>
   <r>
     <x v="149"/>
-    <x v="206"/>
-    <x v="226"/>
-    <x v="282"/>
+    <x v="207"/>
+    <x v="227"/>
+    <x v="283"/>
     <x v="0"/>
     <x v="0"/>
     <x v="7"/>
@@ -6339,7 +6343,7 @@
     <x v="150"/>
     <x v="57"/>
     <x v="195"/>
-    <x v="281"/>
+    <x v="282"/>
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
@@ -6357,9 +6361,9 @@
   </r>
   <r>
     <x v="152"/>
-    <x v="272"/>
+    <x v="273"/>
     <x v="62"/>
-    <x v="321"/>
+    <x v="322"/>
     <x v="0"/>
     <x v="6"/>
     <x v="7"/>
@@ -6367,8 +6371,8 @@
   </r>
   <r>
     <x v="153"/>
-    <x v="267"/>
-    <x v="234"/>
+    <x v="268"/>
+    <x v="235"/>
     <x v="17"/>
     <x v="0"/>
     <x v="6"/>
@@ -6379,7 +6383,7 @@
     <x v="154"/>
     <x v="91"/>
     <x v="13"/>
-    <x v="83"/>
+    <x v="84"/>
     <x v="0"/>
     <x v="0"/>
     <x v="6"/>
@@ -6389,7 +6393,7 @@
     <x v="155"/>
     <x v="158"/>
     <x v="4"/>
-    <x v="143"/>
+    <x v="144"/>
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
@@ -6397,9 +6401,9 @@
   </r>
   <r>
     <x v="156"/>
-    <x v="249"/>
+    <x v="250"/>
     <x v="65"/>
-    <x v="105"/>
+    <x v="106"/>
     <x v="0"/>
     <x v="0"/>
     <x v="3"/>
@@ -6408,8 +6412,8 @@
   <r>
     <x v="157"/>
     <x v="102"/>
-    <x v="283"/>
-    <x v="106"/>
+    <x v="284"/>
+    <x v="107"/>
     <x v="1"/>
     <x v="6"/>
     <x v="3"/>
@@ -6417,9 +6421,9 @@
   </r>
   <r>
     <x v="158"/>
-    <x v="176"/>
+    <x v="177"/>
     <x v="82"/>
-    <x v="107"/>
+    <x v="108"/>
     <x v="6"/>
     <x v="6"/>
     <x v="2"/>
@@ -6427,9 +6431,9 @@
   </r>
   <r>
     <x v="159"/>
-    <x v="277"/>
+    <x v="278"/>
     <x v="134"/>
-    <x v="289"/>
+    <x v="290"/>
     <x v="0"/>
     <x v="0"/>
     <x v="6"/>
@@ -6437,9 +6441,9 @@
   </r>
   <r>
     <x v="160"/>
-    <x v="275"/>
+    <x v="276"/>
     <x v="95"/>
-    <x v="288"/>
+    <x v="289"/>
     <x v="0"/>
     <x v="0"/>
     <x v="6"/>
@@ -6449,7 +6453,7 @@
     <x v="161"/>
     <x v="39"/>
     <x v="209"/>
-    <x v="324"/>
+    <x v="325"/>
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
@@ -6459,7 +6463,7 @@
     <x v="162"/>
     <x v="127"/>
     <x v="50"/>
-    <x v="116"/>
+    <x v="117"/>
     <x v="6"/>
     <x v="0"/>
     <x v="7"/>
@@ -6467,9 +6471,9 @@
   </r>
   <r>
     <x v="163"/>
-    <x v="205"/>
+    <x v="206"/>
     <x v="8"/>
-    <x v="319"/>
+    <x v="320"/>
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
@@ -6477,9 +6481,9 @@
   </r>
   <r>
     <x v="164"/>
-    <x v="209"/>
-    <x v="275"/>
-    <x v="61"/>
+    <x v="210"/>
+    <x v="276"/>
+    <x v="62"/>
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
@@ -6487,9 +6491,9 @@
   </r>
   <r>
     <x v="165"/>
-    <x v="285"/>
     <x v="286"/>
-    <x v="290"/>
+    <x v="287"/>
+    <x v="291"/>
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
@@ -6497,9 +6501,9 @@
   </r>
   <r>
     <x v="166"/>
-    <x v="287"/>
+    <x v="288"/>
     <x v="193"/>
-    <x v="49"/>
+    <x v="50"/>
     <x v="0"/>
     <x v="0"/>
     <x v="7"/>
@@ -6507,9 +6511,9 @@
   </r>
   <r>
     <x v="167"/>
-    <x v="254"/>
-    <x v="267"/>
-    <x v="48"/>
+    <x v="255"/>
+    <x v="268"/>
+    <x v="49"/>
     <x v="0"/>
     <x v="4"/>
     <x v="7"/>
@@ -6517,7 +6521,7 @@
   </r>
   <r>
     <x v="168"/>
-    <x v="171"/>
+    <x v="172"/>
     <x v="33"/>
     <x v="14"/>
     <x v="0"/>
@@ -6527,9 +6531,9 @@
   </r>
   <r>
     <x v="169"/>
-    <x v="308"/>
+    <x v="309"/>
     <x v="126"/>
-    <x v="78"/>
+    <x v="79"/>
     <x v="0"/>
     <x v="0"/>
     <x v="7"/>
@@ -6548,8 +6552,8 @@
   <r>
     <x v="171"/>
     <x v="56"/>
-    <x v="225"/>
-    <x v="43"/>
+    <x v="226"/>
+    <x v="44"/>
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
@@ -6557,6 +6561,16 @@
   </r>
   <r>
     <x v="172"/>
+    <x v="159"/>
+    <x v="222"/>
+    <x v="43"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="173"/>
     <x v="52"/>
     <x v="58"/>
     <x v="18"/>
@@ -6566,129 +6580,119 @@
     <x v="6"/>
   </r>
   <r>
-    <x v="173"/>
+    <x v="174"/>
     <x v="20"/>
     <x v="120"/>
-    <x v="204"/>
+    <x v="205"/>
     <x v="0"/>
     <x v="0"/>
     <x v="5"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="174"/>
-    <x v="26"/>
-    <x v="129"/>
-    <x v="108"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
     <x v="6"/>
   </r>
   <r>
     <x v="175"/>
-    <x v="303"/>
-    <x v="101"/>
-    <x v="320"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="5"/>
+    <x v="26"/>
+    <x v="129"/>
+    <x v="109"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="6"/>
   </r>
   <r>
     <x v="176"/>
-    <x v="301"/>
-    <x v="119"/>
-    <x v="169"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="7"/>
+    <x v="304"/>
+    <x v="101"/>
+    <x v="321"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="5"/>
     <x v="6"/>
   </r>
   <r>
     <x v="177"/>
-    <x v="116"/>
-    <x v="180"/>
-    <x v="123"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
+    <x v="302"/>
+    <x v="119"/>
+    <x v="170"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="7"/>
     <x v="6"/>
   </r>
   <r>
     <x v="178"/>
-    <x v="36"/>
-    <x v="150"/>
-    <x v="122"/>
-    <x v="6"/>
-    <x v="4"/>
-    <x v="3"/>
+    <x v="116"/>
+    <x v="180"/>
+    <x v="124"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="6"/>
   </r>
   <r>
     <x v="179"/>
-    <x v="216"/>
-    <x v="18"/>
-    <x v="124"/>
-    <x v="0"/>
+    <x v="36"/>
+    <x v="150"/>
+    <x v="123"/>
+    <x v="6"/>
     <x v="4"/>
-    <x v="1"/>
+    <x v="3"/>
     <x v="6"/>
   </r>
   <r>
     <x v="180"/>
-    <x v="90"/>
-    <x v="123"/>
-    <x v="248"/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="217"/>
+    <x v="18"/>
+    <x v="125"/>
+    <x v="0"/>
+    <x v="4"/>
     <x v="1"/>
     <x v="6"/>
   </r>
   <r>
     <x v="181"/>
-    <x v="149"/>
-    <x v="239"/>
-    <x v="172"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="3"/>
+    <x v="90"/>
+    <x v="123"/>
+    <x v="249"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="6"/>
   </r>
   <r>
     <x v="182"/>
-    <x v="104"/>
-    <x v="171"/>
-    <x v="174"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
+    <x v="149"/>
+    <x v="240"/>
+    <x v="173"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="3"/>
     <x v="6"/>
   </r>
   <r>
     <x v="183"/>
-    <x v="168"/>
-    <x v="146"/>
-    <x v="173"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="7"/>
+    <x v="104"/>
+    <x v="171"/>
+    <x v="175"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="6"/>
   </r>
   <r>
     <x v="184"/>
-    <x v="217"/>
-    <x v="177"/>
-    <x v="175"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
+    <x v="169"/>
+    <x v="146"/>
+    <x v="174"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="7"/>
     <x v="6"/>
   </r>
   <r>
     <x v="185"/>
-    <x v="190"/>
-    <x v="317"/>
+    <x v="218"/>
+    <x v="177"/>
     <x v="176"/>
     <x v="0"/>
     <x v="0"/>
@@ -6697,29 +6701,29 @@
   </r>
   <r>
     <x v="186"/>
-    <x v="161"/>
-    <x v="99"/>
-    <x v="218"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="7"/>
+    <x v="191"/>
+    <x v="318"/>
+    <x v="177"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="6"/>
   </r>
   <r>
     <x v="187"/>
-    <x v="47"/>
-    <x v="102"/>
-    <x v="151"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="5"/>
+    <x v="162"/>
+    <x v="99"/>
+    <x v="219"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="7"/>
     <x v="6"/>
   </r>
   <r>
     <x v="188"/>
-    <x v="53"/>
-    <x v="103"/>
-    <x v="247"/>
+    <x v="47"/>
+    <x v="102"/>
+    <x v="152"/>
     <x v="6"/>
     <x v="0"/>
     <x v="5"/>
@@ -6727,96 +6731,106 @@
   </r>
   <r>
     <x v="189"/>
-    <x v="259"/>
-    <x v="279"/>
-    <x v="214"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
+    <x v="53"/>
+    <x v="103"/>
+    <x v="248"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="5"/>
     <x v="6"/>
   </r>
   <r>
     <x v="190"/>
-    <x v="40"/>
-    <x v="299"/>
-    <x v="113"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="7"/>
+    <x v="260"/>
+    <x v="280"/>
+    <x v="215"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="6"/>
   </r>
   <r>
     <x v="191"/>
-    <x v="194"/>
-    <x v="254"/>
-    <x v="112"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="3"/>
+    <x v="40"/>
+    <x v="300"/>
+    <x v="114"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="7"/>
     <x v="6"/>
   </r>
   <r>
     <x v="192"/>
-    <x v="165"/>
-    <x v="39"/>
-    <x v="111"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="6"/>
+    <x v="195"/>
+    <x v="255"/>
+    <x v="113"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
     <x v="6"/>
   </r>
   <r>
     <x v="193"/>
-    <x v="148"/>
-    <x v="164"/>
-    <x v="110"/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="166"/>
+    <x v="39"/>
+    <x v="112"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="6"/>
     <x v="6"/>
   </r>
   <r>
     <x v="194"/>
-    <x v="120"/>
-    <x v="216"/>
-    <x v="109"/>
-    <x v="4"/>
+    <x v="148"/>
+    <x v="164"/>
+    <x v="111"/>
+    <x v="3"/>
     <x v="0"/>
     <x v="0"/>
     <x v="6"/>
   </r>
   <r>
     <x v="195"/>
-    <x v="8"/>
-    <x v="12"/>
-    <x v="222"/>
-    <x v="6"/>
-    <x v="6"/>
-    <x v="7"/>
+    <x v="120"/>
+    <x v="216"/>
+    <x v="110"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="6"/>
   </r>
   <r>
     <x v="196"/>
-    <x v="129"/>
-    <x v="153"/>
-    <x v="66"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
+    <x v="8"/>
+    <x v="12"/>
+    <x v="223"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="7"/>
     <x v="6"/>
   </r>
   <r>
     <x v="197"/>
-    <x v="94"/>
-    <x v="85"/>
-    <x v="147"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="5"/>
+    <x v="129"/>
+    <x v="153"/>
+    <x v="67"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="6"/>
   </r>
   <r>
     <x v="198"/>
+    <x v="94"/>
+    <x v="85"/>
+    <x v="148"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="199"/>
     <x v="58"/>
     <x v="111"/>
     <x v="16"/>
@@ -6826,50 +6840,40 @@
     <x v="6"/>
   </r>
   <r>
-    <x v="199"/>
+    <x v="200"/>
     <x v="99"/>
-    <x v="318"/>
-    <x v="191"/>
+    <x v="319"/>
+    <x v="192"/>
     <x v="0"/>
     <x v="4"/>
     <x v="3"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="200"/>
-    <x v="153"/>
-    <x v="166"/>
-    <x v="133"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="5"/>
     <x v="6"/>
   </r>
   <r>
     <x v="201"/>
-    <x v="279"/>
-    <x v="261"/>
-    <x v="268"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="7"/>
+    <x v="153"/>
+    <x v="166"/>
+    <x v="134"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="5"/>
     <x v="6"/>
   </r>
   <r>
     <x v="202"/>
-    <x v="169"/>
-    <x v="9"/>
-    <x v="162"/>
+    <x v="280"/>
+    <x v="262"/>
+    <x v="269"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="2"/>
+    <x v="7"/>
     <x v="6"/>
   </r>
   <r>
     <x v="203"/>
-    <x v="139"/>
-    <x v="56"/>
-    <x v="121"/>
+    <x v="170"/>
+    <x v="9"/>
+    <x v="163"/>
     <x v="2"/>
     <x v="0"/>
     <x v="2"/>
@@ -6877,189 +6881,189 @@
   </r>
   <r>
     <x v="204"/>
-    <x v="295"/>
-    <x v="313"/>
-    <x v="256"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
+    <x v="139"/>
+    <x v="56"/>
+    <x v="122"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
     <x v="6"/>
   </r>
   <r>
     <x v="205"/>
-    <x v="260"/>
-    <x v="43"/>
-    <x v="227"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="7"/>
+    <x v="296"/>
+    <x v="314"/>
+    <x v="257"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="6"/>
   </r>
   <r>
     <x v="206"/>
-    <x v="119"/>
-    <x v="151"/>
-    <x v="223"/>
-    <x v="6"/>
-    <x v="6"/>
-    <x v="4"/>
+    <x v="261"/>
+    <x v="43"/>
+    <x v="228"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="7"/>
     <x v="6"/>
   </r>
   <r>
     <x v="207"/>
-    <x v="25"/>
-    <x v="93"/>
-    <x v="117"/>
-    <x v="6"/>
-    <x v="6"/>
-    <x v="2"/>
+    <x v="119"/>
+    <x v="151"/>
+    <x v="224"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="4"/>
     <x v="6"/>
   </r>
   <r>
     <x v="208"/>
-    <x v="19"/>
-    <x v="107"/>
-    <x v="267"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="5"/>
+    <x v="25"/>
+    <x v="93"/>
+    <x v="118"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="2"/>
     <x v="6"/>
   </r>
   <r>
     <x v="209"/>
-    <x v="211"/>
-    <x v="196"/>
-    <x v="13"/>
-    <x v="6"/>
-    <x v="4"/>
-    <x v="7"/>
+    <x v="19"/>
+    <x v="107"/>
+    <x v="268"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="5"/>
     <x v="6"/>
   </r>
   <r>
     <x v="210"/>
-    <x v="114"/>
-    <x v="105"/>
-    <x v="277"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="5"/>
+    <x v="212"/>
+    <x v="196"/>
+    <x v="13"/>
+    <x v="6"/>
+    <x v="4"/>
+    <x v="7"/>
     <x v="6"/>
   </r>
   <r>
     <x v="211"/>
-    <x v="284"/>
-    <x v="115"/>
-    <x v="85"/>
-    <x v="6"/>
-    <x v="6"/>
-    <x v="3"/>
+    <x v="114"/>
+    <x v="105"/>
+    <x v="278"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="5"/>
     <x v="6"/>
   </r>
   <r>
     <x v="212"/>
-    <x v="69"/>
-    <x v="268"/>
-    <x v="84"/>
-    <x v="6"/>
-    <x v="6"/>
-    <x v="7"/>
+    <x v="285"/>
+    <x v="115"/>
+    <x v="86"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="3"/>
     <x v="6"/>
   </r>
   <r>
     <x v="213"/>
-    <x v="307"/>
+    <x v="69"/>
+    <x v="269"/>
+    <x v="85"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="214"/>
+    <x v="308"/>
     <x v="118"/>
-    <x v="312"/>
+    <x v="313"/>
     <x v="2"/>
     <x v="1"/>
     <x v="2"/>
     <x v="6"/>
   </r>
   <r>
-    <x v="214"/>
-    <x v="293"/>
-    <x v="309"/>
-    <x v="97"/>
+    <x v="215"/>
+    <x v="294"/>
+    <x v="310"/>
+    <x v="98"/>
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="215"/>
-    <x v="306"/>
-    <x v="52"/>
-    <x v="266"/>
-    <x v="6"/>
-    <x v="6"/>
-    <x v="4"/>
     <x v="6"/>
   </r>
   <r>
     <x v="216"/>
-    <x v="232"/>
+    <x v="307"/>
+    <x v="52"/>
+    <x v="267"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="4"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="217"/>
+    <x v="233"/>
     <x v="137"/>
-    <x v="265"/>
+    <x v="266"/>
     <x v="6"/>
     <x v="0"/>
     <x v="3"/>
     <x v="2"/>
   </r>
   <r>
-    <x v="217"/>
+    <x v="218"/>
     <x v="64"/>
-    <x v="314"/>
-    <x v="246"/>
+    <x v="315"/>
+    <x v="247"/>
     <x v="6"/>
     <x v="0"/>
     <x v="4"/>
     <x v="6"/>
   </r>
   <r>
-    <x v="218"/>
-    <x v="309"/>
+    <x v="219"/>
+    <x v="310"/>
     <x v="48"/>
-    <x v="237"/>
+    <x v="238"/>
     <x v="3"/>
     <x v="0"/>
     <x v="2"/>
     <x v="6"/>
   </r>
   <r>
-    <x v="317"/>
-    <x v="309"/>
+    <x v="318"/>
+    <x v="310"/>
     <x v="48"/>
-    <x v="219"/>
+    <x v="220"/>
     <x v="3"/>
     <x v="4"/>
     <x v="2"/>
     <x v="6"/>
   </r>
   <r>
-    <x v="317"/>
-    <x v="258"/>
-    <x v="270"/>
-    <x v="220"/>
+    <x v="318"/>
+    <x v="259"/>
+    <x v="271"/>
+    <x v="221"/>
     <x v="0"/>
     <x v="0"/>
     <x v="5"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="219"/>
-    <x v="103"/>
-    <x v="169"/>
-    <x v="240"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
     <x v="6"/>
   </r>
   <r>
     <x v="220"/>
-    <x v="17"/>
-    <x v="298"/>
-    <x v="236"/>
+    <x v="103"/>
+    <x v="169"/>
+    <x v="241"/>
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
@@ -7067,89 +7071,89 @@
   </r>
   <r>
     <x v="221"/>
-    <x v="286"/>
-    <x v="316"/>
-    <x v="244"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="7"/>
+    <x v="17"/>
+    <x v="299"/>
+    <x v="237"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="6"/>
   </r>
   <r>
     <x v="222"/>
-    <x v="45"/>
-    <x v="89"/>
-    <x v="238"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="5"/>
+    <x v="287"/>
+    <x v="317"/>
+    <x v="245"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="7"/>
     <x v="6"/>
   </r>
   <r>
     <x v="223"/>
-    <x v="7"/>
-    <x v="233"/>
-    <x v="243"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
+    <x v="45"/>
+    <x v="89"/>
+    <x v="239"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="5"/>
     <x v="6"/>
   </r>
   <r>
     <x v="224"/>
-    <x v="80"/>
-    <x v="223"/>
-    <x v="242"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="5"/>
+    <x v="7"/>
+    <x v="234"/>
+    <x v="244"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="6"/>
   </r>
   <r>
     <x v="225"/>
-    <x v="73"/>
-    <x v="320"/>
-    <x v="241"/>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="6"/>
-    <x v="0"/>
+    <x v="80"/>
+    <x v="224"/>
+    <x v="243"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="6"/>
   </r>
   <r>
     <x v="226"/>
-    <x v="266"/>
-    <x v="168"/>
-    <x v="239"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="6"/>
+    <x v="73"/>
+    <x v="321"/>
+    <x v="242"/>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="227"/>
-    <x v="88"/>
-    <x v="156"/>
-    <x v="245"/>
-    <x v="5"/>
-    <x v="0"/>
-    <x v="5"/>
+    <x v="267"/>
+    <x v="168"/>
+    <x v="240"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="6"/>
   </r>
   <r>
     <x v="228"/>
-    <x v="38"/>
-    <x v="32"/>
-    <x v="167"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
+    <x v="88"/>
+    <x v="156"/>
+    <x v="246"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="5"/>
     <x v="6"/>
   </r>
   <r>
     <x v="229"/>
-    <x v="156"/>
-    <x v="204"/>
-    <x v="161"/>
+    <x v="38"/>
+    <x v="32"/>
+    <x v="168"/>
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
@@ -7157,56 +7161,66 @@
   </r>
   <r>
     <x v="230"/>
-    <x v="75"/>
-    <x v="170"/>
-    <x v="160"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="3"/>
+    <x v="156"/>
+    <x v="204"/>
+    <x v="162"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="6"/>
   </r>
   <r>
     <x v="231"/>
-    <x v="221"/>
-    <x v="1"/>
-    <x v="8"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
+    <x v="75"/>
+    <x v="170"/>
+    <x v="161"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="3"/>
     <x v="6"/>
   </r>
   <r>
     <x v="232"/>
-    <x v="203"/>
-    <x v="266"/>
-    <x v="10"/>
-    <x v="6"/>
-    <x v="6"/>
-    <x v="7"/>
+    <x v="222"/>
+    <x v="1"/>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="6"/>
   </r>
   <r>
     <x v="233"/>
-    <x v="59"/>
-    <x v="222"/>
-    <x v="5"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
+    <x v="204"/>
+    <x v="267"/>
+    <x v="10"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="7"/>
     <x v="6"/>
   </r>
   <r>
     <x v="234"/>
-    <x v="262"/>
-    <x v="108"/>
-    <x v="11"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="3"/>
+    <x v="59"/>
+    <x v="223"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="6"/>
   </r>
   <r>
     <x v="235"/>
+    <x v="263"/>
+    <x v="108"/>
+    <x v="11"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="236"/>
     <x v="37"/>
     <x v="28"/>
     <x v="7"/>
@@ -7216,120 +7230,110 @@
     <x v="6"/>
   </r>
   <r>
-    <x v="236"/>
-    <x v="255"/>
+    <x v="237"/>
+    <x v="256"/>
     <x v="200"/>
     <x v="9"/>
     <x v="6"/>
     <x v="0"/>
     <x v="3"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="237"/>
-    <x v="44"/>
-    <x v="147"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="5"/>
     <x v="6"/>
   </r>
   <r>
     <x v="238"/>
-    <x v="60"/>
-    <x v="54"/>
-    <x v="188"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="7"/>
+    <x v="44"/>
+    <x v="147"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="5"/>
     <x v="6"/>
   </r>
   <r>
     <x v="239"/>
-    <x v="204"/>
-    <x v="253"/>
-    <x v="186"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="6"/>
+    <x v="60"/>
+    <x v="54"/>
+    <x v="189"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="7"/>
     <x v="6"/>
   </r>
   <r>
     <x v="240"/>
-    <x v="180"/>
-    <x v="265"/>
+    <x v="205"/>
+    <x v="254"/>
     <x v="187"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="5"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="6"/>
     <x v="6"/>
   </r>
   <r>
     <x v="241"/>
-    <x v="144"/>
-    <x v="92"/>
-    <x v="292"/>
-    <x v="6"/>
-    <x v="6"/>
-    <x v="4"/>
+    <x v="181"/>
+    <x v="266"/>
+    <x v="188"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="5"/>
     <x v="6"/>
   </r>
   <r>
     <x v="242"/>
-    <x v="70"/>
-    <x v="139"/>
+    <x v="144"/>
+    <x v="92"/>
     <x v="293"/>
     <x v="6"/>
-    <x v="0"/>
-    <x v="2"/>
+    <x v="6"/>
+    <x v="4"/>
     <x v="6"/>
   </r>
   <r>
     <x v="243"/>
-    <x v="235"/>
-    <x v="11"/>
-    <x v="299"/>
-    <x v="5"/>
-    <x v="0"/>
-    <x v="6"/>
+    <x v="70"/>
+    <x v="139"/>
+    <x v="294"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="2"/>
     <x v="6"/>
   </r>
   <r>
     <x v="244"/>
-    <x v="113"/>
-    <x v="181"/>
-    <x v="296"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="317"/>
-    <x v="113"/>
-    <x v="181"/>
-    <x v="270"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="317"/>
-    <x v="224"/>
-    <x v="29"/>
-    <x v="271"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
+    <x v="236"/>
+    <x v="11"/>
+    <x v="300"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="6"/>
     <x v="6"/>
   </r>
   <r>
     <x v="245"/>
-    <x v="296"/>
-    <x v="284"/>
-    <x v="294"/>
+    <x v="113"/>
+    <x v="181"/>
+    <x v="297"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="318"/>
+    <x v="113"/>
+    <x v="181"/>
+    <x v="271"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="318"/>
+    <x v="225"/>
+    <x v="29"/>
+    <x v="272"/>
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
@@ -7337,9 +7341,9 @@
   </r>
   <r>
     <x v="246"/>
-    <x v="197"/>
-    <x v="264"/>
-    <x v="298"/>
+    <x v="297"/>
+    <x v="285"/>
+    <x v="295"/>
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
@@ -7347,9 +7351,9 @@
   </r>
   <r>
     <x v="247"/>
-    <x v="155"/>
-    <x v="301"/>
-    <x v="297"/>
+    <x v="198"/>
+    <x v="265"/>
+    <x v="299"/>
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
@@ -7357,19 +7361,19 @@
   </r>
   <r>
     <x v="248"/>
-    <x v="42"/>
-    <x v="81"/>
-    <x v="295"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="3"/>
+    <x v="155"/>
+    <x v="302"/>
+    <x v="298"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="6"/>
   </r>
   <r>
     <x v="249"/>
-    <x v="85"/>
-    <x v="278"/>
-    <x v="213"/>
+    <x v="42"/>
+    <x v="81"/>
+    <x v="296"/>
     <x v="6"/>
     <x v="0"/>
     <x v="3"/>
@@ -7377,38 +7381,38 @@
   </r>
   <r>
     <x v="250"/>
-    <x v="188"/>
-    <x v="128"/>
-    <x v="134"/>
-    <x v="6"/>
-    <x v="6"/>
-    <x v="4"/>
+    <x v="85"/>
+    <x v="279"/>
+    <x v="214"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="3"/>
     <x v="6"/>
   </r>
   <r>
     <x v="251"/>
-    <x v="239"/>
-    <x v="289"/>
-    <x v="192"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="7"/>
+    <x v="189"/>
+    <x v="128"/>
+    <x v="135"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="4"/>
     <x v="6"/>
   </r>
   <r>
     <x v="252"/>
-    <x v="147"/>
-    <x v="63"/>
+    <x v="240"/>
+    <x v="290"/>
     <x v="193"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="6"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="7"/>
     <x v="6"/>
   </r>
   <r>
     <x v="253"/>
-    <x v="24"/>
-    <x v="27"/>
+    <x v="147"/>
+    <x v="63"/>
     <x v="194"/>
     <x v="0"/>
     <x v="0"/>
@@ -7417,19 +7421,19 @@
   </r>
   <r>
     <x v="254"/>
-    <x v="193"/>
-    <x v="271"/>
-    <x v="77"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
+    <x v="24"/>
+    <x v="27"/>
+    <x v="195"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="6"/>
     <x v="6"/>
   </r>
   <r>
     <x v="255"/>
-    <x v="27"/>
-    <x v="243"/>
-    <x v="303"/>
+    <x v="194"/>
+    <x v="272"/>
+    <x v="78"/>
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
@@ -7437,199 +7441,199 @@
   </r>
   <r>
     <x v="256"/>
-    <x v="269"/>
-    <x v="127"/>
-    <x v="141"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="4"/>
+    <x v="27"/>
+    <x v="244"/>
+    <x v="304"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="6"/>
   </r>
   <r>
     <x v="257"/>
+    <x v="270"/>
+    <x v="127"/>
+    <x v="142"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="258"/>
     <x v="93"/>
     <x v="44"/>
-    <x v="140"/>
+    <x v="141"/>
     <x v="0"/>
     <x v="0"/>
     <x v="5"/>
     <x v="4"/>
   </r>
   <r>
-    <x v="258"/>
-    <x v="316"/>
-    <x v="240"/>
-    <x v="142"/>
+    <x v="259"/>
+    <x v="317"/>
+    <x v="241"/>
+    <x v="143"/>
     <x v="5"/>
     <x v="0"/>
     <x v="7"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="259"/>
-    <x v="71"/>
-    <x v="69"/>
-    <x v="235"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="2"/>
     <x v="6"/>
   </r>
   <r>
     <x v="260"/>
-    <x v="96"/>
-    <x v="15"/>
-    <x v="234"/>
-    <x v="6"/>
-    <x v="6"/>
-    <x v="3"/>
+    <x v="71"/>
+    <x v="69"/>
+    <x v="236"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="2"/>
     <x v="6"/>
   </r>
   <r>
     <x v="261"/>
-    <x v="32"/>
-    <x v="304"/>
-    <x v="273"/>
-    <x v="6"/>
-    <x v="0"/>
+    <x v="96"/>
+    <x v="15"/>
+    <x v="235"/>
+    <x v="6"/>
+    <x v="6"/>
     <x v="3"/>
     <x v="6"/>
   </r>
   <r>
     <x v="262"/>
-    <x v="213"/>
-    <x v="132"/>
+    <x v="32"/>
+    <x v="305"/>
     <x v="274"/>
     <x v="6"/>
     <x v="0"/>
-    <x v="6"/>
+    <x v="3"/>
     <x v="6"/>
   </r>
   <r>
     <x v="263"/>
-    <x v="225"/>
-    <x v="272"/>
-    <x v="272"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
+    <x v="214"/>
+    <x v="132"/>
+    <x v="275"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="6"/>
     <x v="6"/>
   </r>
   <r>
     <x v="264"/>
-    <x v="241"/>
-    <x v="218"/>
-    <x v="217"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="3"/>
+    <x v="226"/>
+    <x v="273"/>
+    <x v="273"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="6"/>
   </r>
   <r>
     <x v="265"/>
-    <x v="54"/>
-    <x v="311"/>
-    <x v="325"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
+    <x v="242"/>
+    <x v="218"/>
+    <x v="218"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="3"/>
     <x v="6"/>
   </r>
   <r>
     <x v="266"/>
-    <x v="174"/>
-    <x v="251"/>
-    <x v="317"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="7"/>
+    <x v="54"/>
+    <x v="312"/>
+    <x v="326"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="6"/>
   </r>
   <r>
     <x v="267"/>
-    <x v="3"/>
-    <x v="45"/>
-    <x v="314"/>
-    <x v="6"/>
-    <x v="6"/>
-    <x v="4"/>
+    <x v="175"/>
+    <x v="252"/>
+    <x v="318"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="7"/>
     <x v="6"/>
   </r>
   <r>
     <x v="268"/>
-    <x v="280"/>
-    <x v="136"/>
-    <x v="316"/>
-    <x v="6"/>
-    <x v="6"/>
     <x v="3"/>
+    <x v="45"/>
+    <x v="315"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="4"/>
     <x v="6"/>
   </r>
   <r>
     <x v="269"/>
-    <x v="184"/>
-    <x v="249"/>
-    <x v="313"/>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="2"/>
+    <x v="281"/>
+    <x v="136"/>
+    <x v="317"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="3"/>
     <x v="6"/>
   </r>
   <r>
     <x v="270"/>
-    <x v="229"/>
-    <x v="276"/>
-    <x v="315"/>
-    <x v="6"/>
-    <x v="6"/>
-    <x v="4"/>
+    <x v="185"/>
+    <x v="250"/>
+    <x v="314"/>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="2"/>
     <x v="6"/>
   </r>
   <r>
     <x v="271"/>
-    <x v="141"/>
-    <x v="207"/>
-    <x v="318"/>
-    <x v="6"/>
-    <x v="6"/>
-    <x v="3"/>
+    <x v="230"/>
+    <x v="277"/>
+    <x v="316"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="4"/>
     <x v="6"/>
   </r>
   <r>
     <x v="272"/>
-    <x v="182"/>
-    <x v="255"/>
-    <x v="226"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
+    <x v="141"/>
+    <x v="207"/>
+    <x v="319"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="3"/>
     <x v="6"/>
   </r>
   <r>
     <x v="273"/>
-    <x v="240"/>
-    <x v="77"/>
-    <x v="291"/>
-    <x v="6"/>
-    <x v="6"/>
-    <x v="2"/>
+    <x v="183"/>
+    <x v="256"/>
+    <x v="227"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="6"/>
   </r>
   <r>
     <x v="274"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="259"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
+    <x v="241"/>
+    <x v="77"/>
+    <x v="292"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="2"/>
     <x v="6"/>
   </r>
   <r>
     <x v="275"/>
-    <x v="13"/>
-    <x v="269"/>
-    <x v="261"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="260"/>
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
@@ -7637,99 +7641,99 @@
   </r>
   <r>
     <x v="276"/>
-    <x v="98"/>
-    <x v="88"/>
-    <x v="260"/>
-    <x v="6"/>
-    <x v="6"/>
-    <x v="4"/>
+    <x v="13"/>
+    <x v="270"/>
+    <x v="262"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="6"/>
   </r>
   <r>
     <x v="277"/>
-    <x v="200"/>
-    <x v="302"/>
-    <x v="212"/>
-    <x v="5"/>
-    <x v="0"/>
-    <x v="3"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="317"/>
-    <x v="200"/>
-    <x v="26"/>
-    <x v="196"/>
-    <x v="6"/>
-    <x v="6"/>
-    <x v="3"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="317"/>
-    <x v="151"/>
-    <x v="160"/>
-    <x v="198"/>
-    <x v="6"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="317"/>
-    <x v="135"/>
-    <x v="20"/>
-    <x v="197"/>
-    <x v="6"/>
-    <x v="6"/>
-    <x v="1"/>
+    <x v="98"/>
+    <x v="88"/>
+    <x v="261"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="4"/>
     <x v="6"/>
   </r>
   <r>
     <x v="278"/>
-    <x v="310"/>
-    <x v="42"/>
-    <x v="211"/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="201"/>
+    <x v="303"/>
+    <x v="213"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="318"/>
+    <x v="201"/>
+    <x v="26"/>
+    <x v="197"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="318"/>
+    <x v="151"/>
+    <x v="160"/>
+    <x v="199"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="318"/>
+    <x v="135"/>
+    <x v="20"/>
+    <x v="198"/>
+    <x v="6"/>
+    <x v="6"/>
     <x v="1"/>
     <x v="6"/>
   </r>
   <r>
     <x v="279"/>
-    <x v="72"/>
-    <x v="159"/>
-    <x v="210"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="7"/>
+    <x v="311"/>
+    <x v="42"/>
+    <x v="212"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="6"/>
   </r>
   <r>
     <x v="280"/>
-    <x v="5"/>
-    <x v="307"/>
-    <x v="209"/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="3"/>
+    <x v="72"/>
+    <x v="159"/>
+    <x v="211"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="7"/>
     <x v="6"/>
   </r>
   <r>
     <x v="281"/>
-    <x v="238"/>
-    <x v="250"/>
-    <x v="39"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="6"/>
+    <x v="5"/>
+    <x v="308"/>
+    <x v="210"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="3"/>
     <x v="6"/>
   </r>
   <r>
     <x v="282"/>
-    <x v="29"/>
-    <x v="287"/>
-    <x v="34"/>
+    <x v="239"/>
+    <x v="251"/>
+    <x v="39"/>
     <x v="0"/>
     <x v="0"/>
     <x v="6"/>
@@ -7737,128 +7741,128 @@
   </r>
   <r>
     <x v="283"/>
-    <x v="304"/>
-    <x v="201"/>
-    <x v="38"/>
-    <x v="6"/>
-    <x v="6"/>
-    <x v="2"/>
+    <x v="29"/>
+    <x v="288"/>
+    <x v="34"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="6"/>
     <x v="6"/>
   </r>
   <r>
     <x v="284"/>
-    <x v="11"/>
-    <x v="290"/>
-    <x v="41"/>
-    <x v="6"/>
-    <x v="0"/>
+    <x v="305"/>
+    <x v="201"/>
+    <x v="38"/>
+    <x v="6"/>
+    <x v="6"/>
     <x v="2"/>
     <x v="6"/>
   </r>
   <r>
     <x v="285"/>
-    <x v="288"/>
-    <x v="219"/>
-    <x v="36"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
+    <x v="11"/>
+    <x v="291"/>
+    <x v="41"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="2"/>
     <x v="6"/>
   </r>
   <r>
     <x v="286"/>
-    <x v="189"/>
-    <x v="248"/>
-    <x v="35"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="6"/>
+    <x v="289"/>
+    <x v="219"/>
+    <x v="36"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="6"/>
   </r>
   <r>
     <x v="287"/>
-    <x v="18"/>
-    <x v="296"/>
-    <x v="40"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
+    <x v="190"/>
+    <x v="249"/>
+    <x v="35"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="6"/>
     <x v="6"/>
   </r>
   <r>
     <x v="288"/>
-    <x v="248"/>
-    <x v="109"/>
-    <x v="37"/>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="7"/>
+    <x v="18"/>
+    <x v="297"/>
+    <x v="40"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="6"/>
   </r>
   <r>
     <x v="289"/>
-    <x v="223"/>
-    <x v="30"/>
-    <x v="55"/>
-    <x v="0"/>
-    <x v="5"/>
+    <x v="249"/>
+    <x v="109"/>
+    <x v="37"/>
+    <x v="0"/>
+    <x v="6"/>
     <x v="7"/>
     <x v="6"/>
   </r>
   <r>
     <x v="290"/>
-    <x v="237"/>
-    <x v="175"/>
-    <x v="67"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="6"/>
+    <x v="224"/>
+    <x v="30"/>
+    <x v="56"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="7"/>
     <x v="6"/>
   </r>
   <r>
     <x v="291"/>
-    <x v="208"/>
-    <x v="274"/>
-    <x v="249"/>
-    <x v="0"/>
-    <x v="4"/>
-    <x v="7"/>
+    <x v="238"/>
+    <x v="175"/>
+    <x v="68"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="6"/>
     <x v="6"/>
   </r>
   <r>
     <x v="292"/>
-    <x v="79"/>
-    <x v="322"/>
-    <x v="128"/>
-    <x v="6"/>
-    <x v="0"/>
+    <x v="209"/>
+    <x v="275"/>
+    <x v="250"/>
+    <x v="0"/>
+    <x v="4"/>
     <x v="7"/>
     <x v="6"/>
   </r>
   <r>
     <x v="293"/>
-    <x v="157"/>
-    <x v="220"/>
+    <x v="79"/>
+    <x v="323"/>
     <x v="129"/>
     <x v="6"/>
     <x v="0"/>
-    <x v="6"/>
+    <x v="7"/>
     <x v="6"/>
   </r>
   <r>
     <x v="294"/>
-    <x v="312"/>
-    <x v="184"/>
+    <x v="157"/>
+    <x v="220"/>
     <x v="130"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="6"/>
     <x v="6"/>
   </r>
   <r>
     <x v="295"/>
-    <x v="283"/>
-    <x v="260"/>
+    <x v="313"/>
+    <x v="184"/>
     <x v="131"/>
     <x v="0"/>
     <x v="0"/>
@@ -7867,199 +7871,199 @@
   </r>
   <r>
     <x v="296"/>
-    <x v="178"/>
-    <x v="70"/>
+    <x v="284"/>
+    <x v="261"/>
     <x v="132"/>
-    <x v="6"/>
-    <x v="6"/>
-    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="6"/>
   </r>
   <r>
     <x v="297"/>
-    <x v="82"/>
-    <x v="83"/>
-    <x v="127"/>
-    <x v="5"/>
-    <x v="0"/>
-    <x v="6"/>
+    <x v="179"/>
+    <x v="70"/>
+    <x v="133"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="2"/>
     <x v="6"/>
   </r>
   <r>
     <x v="298"/>
-    <x v="33"/>
-    <x v="37"/>
-    <x v="207"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
+    <x v="82"/>
+    <x v="83"/>
+    <x v="128"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="6"/>
     <x v="6"/>
   </r>
   <r>
     <x v="299"/>
-    <x v="35"/>
-    <x v="47"/>
-    <x v="144"/>
-    <x v="6"/>
-    <x v="6"/>
-    <x v="4"/>
+    <x v="33"/>
+    <x v="37"/>
+    <x v="208"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="6"/>
   </r>
   <r>
     <x v="300"/>
+    <x v="35"/>
+    <x v="47"/>
+    <x v="145"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="4"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="301"/>
     <x v="15"/>
     <x v="34"/>
-    <x v="145"/>
+    <x v="146"/>
     <x v="6"/>
     <x v="6"/>
     <x v="2"/>
     <x v="3"/>
   </r>
   <r>
-    <x v="301"/>
+    <x v="302"/>
     <x v="108"/>
     <x v="72"/>
-    <x v="82"/>
+    <x v="83"/>
     <x v="6"/>
     <x v="0"/>
     <x v="7"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="302"/>
-    <x v="87"/>
-    <x v="124"/>
-    <x v="93"/>
-    <x v="6"/>
-    <x v="2"/>
-    <x v="3"/>
     <x v="6"/>
   </r>
   <r>
     <x v="303"/>
-    <x v="112"/>
-    <x v="227"/>
-    <x v="190"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
+    <x v="87"/>
+    <x v="124"/>
+    <x v="94"/>
+    <x v="6"/>
+    <x v="2"/>
+    <x v="3"/>
     <x v="6"/>
   </r>
   <r>
     <x v="304"/>
-    <x v="62"/>
-    <x v="235"/>
-    <x v="189"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="3"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="317"/>
-    <x v="21"/>
-    <x v="323"/>
-    <x v="326"/>
-    <x v="6"/>
-    <x v="6"/>
-    <x v="3"/>
+    <x v="112"/>
+    <x v="228"/>
+    <x v="191"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="6"/>
   </r>
   <r>
     <x v="305"/>
-    <x v="257"/>
-    <x v="202"/>
-    <x v="1"/>
-    <x v="0"/>
+    <x v="62"/>
+    <x v="236"/>
+    <x v="190"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="318"/>
+    <x v="21"/>
+    <x v="324"/>
+    <x v="327"/>
+    <x v="6"/>
     <x v="6"/>
     <x v="3"/>
     <x v="6"/>
   </r>
   <r>
     <x v="306"/>
-    <x v="0"/>
-    <x v="178"/>
-    <x v="0"/>
-    <x v="6"/>
+    <x v="258"/>
+    <x v="202"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="6"/>
     <x v="3"/>
     <x v="6"/>
   </r>
   <r>
     <x v="307"/>
-    <x v="162"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
+    <x v="0"/>
+    <x v="178"/>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="3"/>
     <x v="6"/>
   </r>
   <r>
     <x v="308"/>
-    <x v="55"/>
-    <x v="110"/>
-    <x v="280"/>
-    <x v="6"/>
-    <x v="6"/>
+    <x v="163"/>
     <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="6"/>
   </r>
   <r>
     <x v="309"/>
-    <x v="16"/>
-    <x v="294"/>
-    <x v="81"/>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="3"/>
+    <x v="55"/>
+    <x v="110"/>
+    <x v="281"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="2"/>
     <x v="6"/>
   </r>
   <r>
     <x v="310"/>
+    <x v="16"/>
+    <x v="295"/>
+    <x v="82"/>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="311"/>
     <x v="28"/>
     <x v="59"/>
-    <x v="79"/>
+    <x v="80"/>
     <x v="6"/>
     <x v="0"/>
     <x v="7"/>
     <x v="1"/>
   </r>
   <r>
-    <x v="311"/>
-    <x v="246"/>
+    <x v="312"/>
+    <x v="247"/>
     <x v="122"/>
-    <x v="80"/>
+    <x v="81"/>
     <x v="6"/>
     <x v="0"/>
     <x v="3"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="312"/>
-    <x v="77"/>
-    <x v="130"/>
-    <x v="276"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="7"/>
     <x v="6"/>
   </r>
   <r>
     <x v="313"/>
-    <x v="76"/>
-    <x v="94"/>
-    <x v="262"/>
-    <x v="6"/>
-    <x v="6"/>
-    <x v="3"/>
+    <x v="77"/>
+    <x v="130"/>
+    <x v="277"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="7"/>
     <x v="6"/>
   </r>
   <r>
     <x v="314"/>
-    <x v="109"/>
-    <x v="162"/>
-    <x v="104"/>
+    <x v="76"/>
+    <x v="94"/>
+    <x v="263"/>
     <x v="6"/>
     <x v="6"/>
     <x v="3"/>
@@ -8067,19 +8071,29 @@
   </r>
   <r>
     <x v="315"/>
-    <x v="97"/>
-    <x v="167"/>
-    <x v="224"/>
-    <x v="6"/>
-    <x v="6"/>
-    <x v="7"/>
+    <x v="109"/>
+    <x v="162"/>
+    <x v="105"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="3"/>
     <x v="6"/>
   </r>
   <r>
     <x v="316"/>
+    <x v="97"/>
+    <x v="167"/>
+    <x v="225"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="317"/>
     <x v="61"/>
     <x v="114"/>
-    <x v="225"/>
+    <x v="226"/>
     <x v="6"/>
     <x v="0"/>
     <x v="7"/>
@@ -8090,11 +8104,11 @@
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="DataPilot11" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" useAutoFormatting="0" itemPrintTitles="1" indent="0" outline="1" outlineData="1" compact="0" compactData="0">
-  <location ref="A5:B329" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <location ref="A5:B330" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField compact="0" showAll="0"/>
     <pivotField axis="axisRow" compact="0" showAll="0">
-      <items count="324">
+      <items count="325">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -8244,7 +8258,6 @@
         <item x="156"/>
         <item x="157"/>
         <item x="158"/>
-        <item x="159"/>
         <item x="160"/>
         <item x="161"/>
         <item x="162"/>
@@ -8262,7 +8275,7 @@
         <item x="174"/>
         <item x="175"/>
         <item x="176"/>
-        <item x="178"/>
+        <item x="177"/>
         <item x="179"/>
         <item x="180"/>
         <item x="181"/>
@@ -8277,7 +8290,7 @@
         <item x="190"/>
         <item x="191"/>
         <item x="192"/>
-        <item x="194"/>
+        <item x="193"/>
         <item x="195"/>
         <item x="196"/>
         <item x="197"/>
@@ -8292,7 +8305,7 @@
         <item x="206"/>
         <item x="207"/>
         <item x="208"/>
-        <item x="210"/>
+        <item x="209"/>
         <item x="211"/>
         <item x="212"/>
         <item x="213"/>
@@ -8304,7 +8317,7 @@
         <item x="219"/>
         <item x="220"/>
         <item x="221"/>
-        <item x="223"/>
+        <item x="222"/>
         <item x="224"/>
         <item x="225"/>
         <item x="226"/>
@@ -8333,7 +8346,7 @@
         <item x="249"/>
         <item x="250"/>
         <item x="251"/>
-        <item x="253"/>
+        <item x="252"/>
         <item x="254"/>
         <item x="255"/>
         <item x="256"/>
@@ -8351,7 +8364,7 @@
         <item x="268"/>
         <item x="269"/>
         <item x="270"/>
-        <item x="272"/>
+        <item x="271"/>
         <item x="273"/>
         <item x="274"/>
         <item x="275"/>
@@ -8364,7 +8377,7 @@
         <item x="282"/>
         <item x="283"/>
         <item x="284"/>
-        <item x="286"/>
+        <item x="285"/>
         <item x="287"/>
         <item x="288"/>
         <item x="289"/>
@@ -8378,7 +8391,7 @@
         <item x="297"/>
         <item x="298"/>
         <item x="299"/>
-        <item x="301"/>
+        <item x="300"/>
         <item x="302"/>
         <item x="303"/>
         <item x="304"/>
@@ -8387,9 +8400,9 @@
         <item x="307"/>
         <item x="308"/>
         <item x="309"/>
-        <item x="311"/>
+        <item x="310"/>
         <item x="312"/>
-        <item x="314"/>
+        <item x="313"/>
         <item x="315"/>
         <item x="316"/>
         <item x="317"/>
@@ -8398,26 +8411,28 @@
         <item x="320"/>
         <item x="321"/>
         <item x="322"/>
-        <item x="271"/>
-        <item x="310"/>
+        <item x="323"/>
+        <item x="272"/>
+        <item x="311"/>
         <item x="56"/>
         <item x="123"/>
         <item x="124"/>
         <item x="135"/>
         <item x="151"/>
-        <item x="252"/>
-        <item x="285"/>
-        <item x="313"/>
+        <item x="253"/>
+        <item x="286"/>
+        <item x="314"/>
         <item x="18"/>
         <item x="38"/>
         <item x="54"/>
-        <item x="193"/>
-        <item x="177"/>
-        <item x="222"/>
+        <item x="194"/>
+        <item x="178"/>
+        <item x="223"/>
         <item x="21"/>
-        <item x="300"/>
-        <item x="209"/>
+        <item x="301"/>
+        <item x="210"/>
         <item x="103"/>
+        <item x="159"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -8437,11 +8452,11 @@
 
 <file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="DataPilot5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" useAutoFormatting="0" itemPrintTitles="1" indent="0" outline="1" outlineData="1" compact="0" compactData="0">
-  <location ref="G7:H331" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <location ref="G7:H332" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField compact="0" showAll="0"/>
     <pivotField axis="axisRow" compact="0" showAll="0">
-      <items count="324">
+      <items count="325">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -8591,7 +8606,6 @@
         <item x="156"/>
         <item x="157"/>
         <item x="158"/>
-        <item x="159"/>
         <item x="160"/>
         <item x="161"/>
         <item x="162"/>
@@ -8609,7 +8623,7 @@
         <item x="174"/>
         <item x="175"/>
         <item x="176"/>
-        <item x="178"/>
+        <item x="177"/>
         <item x="179"/>
         <item x="180"/>
         <item x="181"/>
@@ -8624,7 +8638,7 @@
         <item x="190"/>
         <item x="191"/>
         <item x="192"/>
-        <item x="194"/>
+        <item x="193"/>
         <item x="195"/>
         <item x="196"/>
         <item x="197"/>
@@ -8639,7 +8653,7 @@
         <item x="206"/>
         <item x="207"/>
         <item x="208"/>
-        <item x="210"/>
+        <item x="209"/>
         <item x="211"/>
         <item x="212"/>
         <item x="213"/>
@@ -8651,7 +8665,7 @@
         <item x="219"/>
         <item x="220"/>
         <item x="221"/>
-        <item x="223"/>
+        <item x="222"/>
         <item x="224"/>
         <item x="225"/>
         <item x="226"/>
@@ -8680,7 +8694,7 @@
         <item x="249"/>
         <item x="250"/>
         <item x="251"/>
-        <item x="253"/>
+        <item x="252"/>
         <item x="254"/>
         <item x="255"/>
         <item x="256"/>
@@ -8698,7 +8712,7 @@
         <item x="268"/>
         <item x="269"/>
         <item x="270"/>
-        <item x="272"/>
+        <item x="271"/>
         <item x="273"/>
         <item x="274"/>
         <item x="275"/>
@@ -8711,7 +8725,7 @@
         <item x="282"/>
         <item x="283"/>
         <item x="284"/>
-        <item x="286"/>
+        <item x="285"/>
         <item x="287"/>
         <item x="288"/>
         <item x="289"/>
@@ -8725,7 +8739,7 @@
         <item x="297"/>
         <item x="298"/>
         <item x="299"/>
-        <item x="301"/>
+        <item x="300"/>
         <item x="302"/>
         <item x="303"/>
         <item x="304"/>
@@ -8734,9 +8748,9 @@
         <item x="307"/>
         <item x="308"/>
         <item x="309"/>
-        <item x="311"/>
+        <item x="310"/>
         <item x="312"/>
-        <item x="314"/>
+        <item x="313"/>
         <item x="315"/>
         <item x="316"/>
         <item x="317"/>
@@ -8745,26 +8759,28 @@
         <item x="320"/>
         <item x="321"/>
         <item x="322"/>
-        <item x="271"/>
-        <item x="310"/>
+        <item x="323"/>
+        <item x="272"/>
+        <item x="311"/>
         <item x="56"/>
         <item x="123"/>
         <item x="124"/>
         <item x="135"/>
         <item x="151"/>
-        <item x="252"/>
-        <item x="285"/>
-        <item x="313"/>
+        <item x="253"/>
+        <item x="286"/>
+        <item x="314"/>
         <item x="18"/>
         <item x="38"/>
         <item x="54"/>
-        <item x="193"/>
-        <item x="177"/>
-        <item x="222"/>
+        <item x="194"/>
+        <item x="178"/>
+        <item x="223"/>
         <item x="21"/>
-        <item x="300"/>
-        <item x="209"/>
+        <item x="301"/>
+        <item x="210"/>
         <item x="103"/>
+        <item x="159"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -8784,11 +8800,11 @@
 
 <file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="DataPilot6" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" useAutoFormatting="0" itemPrintTitles="1" indent="0" outline="1" outlineData="1" compact="0" compactData="0">
-  <location ref="D15:E339" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <location ref="D15:E340" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField compact="0" showAll="0"/>
     <pivotField axis="axisRow" compact="0" showAll="0">
-      <items count="324">
+      <items count="325">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -8938,7 +8954,6 @@
         <item x="156"/>
         <item x="157"/>
         <item x="158"/>
-        <item x="159"/>
         <item x="160"/>
         <item x="161"/>
         <item x="162"/>
@@ -8956,7 +8971,7 @@
         <item x="174"/>
         <item x="175"/>
         <item x="176"/>
-        <item x="178"/>
+        <item x="177"/>
         <item x="179"/>
         <item x="180"/>
         <item x="181"/>
@@ -8971,7 +8986,7 @@
         <item x="190"/>
         <item x="191"/>
         <item x="192"/>
-        <item x="194"/>
+        <item x="193"/>
         <item x="195"/>
         <item x="196"/>
         <item x="197"/>
@@ -8986,7 +9001,7 @@
         <item x="206"/>
         <item x="207"/>
         <item x="208"/>
-        <item x="210"/>
+        <item x="209"/>
         <item x="211"/>
         <item x="212"/>
         <item x="213"/>
@@ -8998,7 +9013,7 @@
         <item x="219"/>
         <item x="220"/>
         <item x="221"/>
-        <item x="223"/>
+        <item x="222"/>
         <item x="224"/>
         <item x="225"/>
         <item x="226"/>
@@ -9027,7 +9042,7 @@
         <item x="249"/>
         <item x="250"/>
         <item x="251"/>
-        <item x="253"/>
+        <item x="252"/>
         <item x="254"/>
         <item x="255"/>
         <item x="256"/>
@@ -9045,7 +9060,7 @@
         <item x="268"/>
         <item x="269"/>
         <item x="270"/>
-        <item x="272"/>
+        <item x="271"/>
         <item x="273"/>
         <item x="274"/>
         <item x="275"/>
@@ -9058,7 +9073,7 @@
         <item x="282"/>
         <item x="283"/>
         <item x="284"/>
-        <item x="286"/>
+        <item x="285"/>
         <item x="287"/>
         <item x="288"/>
         <item x="289"/>
@@ -9072,7 +9087,7 @@
         <item x="297"/>
         <item x="298"/>
         <item x="299"/>
-        <item x="301"/>
+        <item x="300"/>
         <item x="302"/>
         <item x="303"/>
         <item x="304"/>
@@ -9081,9 +9096,9 @@
         <item x="307"/>
         <item x="308"/>
         <item x="309"/>
-        <item x="311"/>
+        <item x="310"/>
         <item x="312"/>
-        <item x="314"/>
+        <item x="313"/>
         <item x="315"/>
         <item x="316"/>
         <item x="317"/>
@@ -9092,26 +9107,28 @@
         <item x="320"/>
         <item x="321"/>
         <item x="322"/>
-        <item x="271"/>
-        <item x="310"/>
+        <item x="323"/>
+        <item x="272"/>
+        <item x="311"/>
         <item x="56"/>
         <item x="123"/>
         <item x="124"/>
         <item x="135"/>
         <item x="151"/>
-        <item x="252"/>
-        <item x="285"/>
-        <item x="313"/>
+        <item x="253"/>
+        <item x="286"/>
+        <item x="314"/>
         <item x="18"/>
         <item x="38"/>
         <item x="54"/>
-        <item x="193"/>
-        <item x="177"/>
-        <item x="222"/>
+        <item x="194"/>
+        <item x="178"/>
+        <item x="223"/>
         <item x="21"/>
-        <item x="300"/>
-        <item x="209"/>
+        <item x="301"/>
+        <item x="210"/>
         <item x="103"/>
+        <item x="159"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -9131,11 +9148,11 @@
 
 <file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="DataPilot7" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" useAutoFormatting="0" itemPrintTitles="1" indent="0" outline="1" outlineData="1" compact="0" compactData="0">
-  <location ref="C5:D329" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <location ref="C5:D330" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField compact="0" showAll="0"/>
     <pivotField axis="axisRow" compact="0" showAll="0">
-      <items count="324">
+      <items count="325">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -9285,7 +9302,6 @@
         <item x="156"/>
         <item x="157"/>
         <item x="158"/>
-        <item x="159"/>
         <item x="160"/>
         <item x="161"/>
         <item x="162"/>
@@ -9303,7 +9319,7 @@
         <item x="174"/>
         <item x="175"/>
         <item x="176"/>
-        <item x="178"/>
+        <item x="177"/>
         <item x="179"/>
         <item x="180"/>
         <item x="181"/>
@@ -9318,7 +9334,7 @@
         <item x="190"/>
         <item x="191"/>
         <item x="192"/>
-        <item x="194"/>
+        <item x="193"/>
         <item x="195"/>
         <item x="196"/>
         <item x="197"/>
@@ -9333,7 +9349,7 @@
         <item x="206"/>
         <item x="207"/>
         <item x="208"/>
-        <item x="210"/>
+        <item x="209"/>
         <item x="211"/>
         <item x="212"/>
         <item x="213"/>
@@ -9345,7 +9361,7 @@
         <item x="219"/>
         <item x="220"/>
         <item x="221"/>
-        <item x="223"/>
+        <item x="222"/>
         <item x="224"/>
         <item x="225"/>
         <item x="226"/>
@@ -9374,7 +9390,7 @@
         <item x="249"/>
         <item x="250"/>
         <item x="251"/>
-        <item x="253"/>
+        <item x="252"/>
         <item x="254"/>
         <item x="255"/>
         <item x="256"/>
@@ -9392,7 +9408,7 @@
         <item x="268"/>
         <item x="269"/>
         <item x="270"/>
-        <item x="272"/>
+        <item x="271"/>
         <item x="273"/>
         <item x="274"/>
         <item x="275"/>
@@ -9405,7 +9421,7 @@
         <item x="282"/>
         <item x="283"/>
         <item x="284"/>
-        <item x="286"/>
+        <item x="285"/>
         <item x="287"/>
         <item x="288"/>
         <item x="289"/>
@@ -9419,7 +9435,7 @@
         <item x="297"/>
         <item x="298"/>
         <item x="299"/>
-        <item x="301"/>
+        <item x="300"/>
         <item x="302"/>
         <item x="303"/>
         <item x="304"/>
@@ -9428,9 +9444,9 @@
         <item x="307"/>
         <item x="308"/>
         <item x="309"/>
-        <item x="311"/>
+        <item x="310"/>
         <item x="312"/>
-        <item x="314"/>
+        <item x="313"/>
         <item x="315"/>
         <item x="316"/>
         <item x="317"/>
@@ -9439,26 +9455,28 @@
         <item x="320"/>
         <item x="321"/>
         <item x="322"/>
-        <item x="271"/>
-        <item x="310"/>
+        <item x="323"/>
+        <item x="272"/>
+        <item x="311"/>
         <item x="56"/>
         <item x="123"/>
         <item x="124"/>
         <item x="135"/>
         <item x="151"/>
-        <item x="252"/>
-        <item x="285"/>
-        <item x="313"/>
+        <item x="253"/>
+        <item x="286"/>
+        <item x="314"/>
         <item x="18"/>
         <item x="38"/>
         <item x="54"/>
-        <item x="193"/>
-        <item x="177"/>
-        <item x="222"/>
+        <item x="194"/>
+        <item x="178"/>
+        <item x="223"/>
         <item x="21"/>
-        <item x="300"/>
-        <item x="209"/>
+        <item x="301"/>
+        <item x="210"/>
         <item x="103"/>
+        <item x="159"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -9478,11 +9496,11 @@
 
 <file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="DataPilot8" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" useAutoFormatting="0" itemPrintTitles="1" indent="0" outline="1" outlineData="1" compact="0" compactData="0">
-  <location ref="F5:G329" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <location ref="F5:G330" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField compact="0" showAll="0"/>
     <pivotField axis="axisRow" compact="0" showAll="0">
-      <items count="324">
+      <items count="325">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -9632,7 +9650,6 @@
         <item x="156"/>
         <item x="157"/>
         <item x="158"/>
-        <item x="159"/>
         <item x="160"/>
         <item x="161"/>
         <item x="162"/>
@@ -9650,7 +9667,7 @@
         <item x="174"/>
         <item x="175"/>
         <item x="176"/>
-        <item x="178"/>
+        <item x="177"/>
         <item x="179"/>
         <item x="180"/>
         <item x="181"/>
@@ -9665,7 +9682,7 @@
         <item x="190"/>
         <item x="191"/>
         <item x="192"/>
-        <item x="194"/>
+        <item x="193"/>
         <item x="195"/>
         <item x="196"/>
         <item x="197"/>
@@ -9680,7 +9697,7 @@
         <item x="206"/>
         <item x="207"/>
         <item x="208"/>
-        <item x="210"/>
+        <item x="209"/>
         <item x="211"/>
         <item x="212"/>
         <item x="213"/>
@@ -9692,7 +9709,7 @@
         <item x="219"/>
         <item x="220"/>
         <item x="221"/>
-        <item x="223"/>
+        <item x="222"/>
         <item x="224"/>
         <item x="225"/>
         <item x="226"/>
@@ -9721,7 +9738,7 @@
         <item x="249"/>
         <item x="250"/>
         <item x="251"/>
-        <item x="253"/>
+        <item x="252"/>
         <item x="254"/>
         <item x="255"/>
         <item x="256"/>
@@ -9739,7 +9756,7 @@
         <item x="268"/>
         <item x="269"/>
         <item x="270"/>
-        <item x="272"/>
+        <item x="271"/>
         <item x="273"/>
         <item x="274"/>
         <item x="275"/>
@@ -9752,7 +9769,7 @@
         <item x="282"/>
         <item x="283"/>
         <item x="284"/>
-        <item x="286"/>
+        <item x="285"/>
         <item x="287"/>
         <item x="288"/>
         <item x="289"/>
@@ -9766,7 +9783,7 @@
         <item x="297"/>
         <item x="298"/>
         <item x="299"/>
-        <item x="301"/>
+        <item x="300"/>
         <item x="302"/>
         <item x="303"/>
         <item x="304"/>
@@ -9775,9 +9792,9 @@
         <item x="307"/>
         <item x="308"/>
         <item x="309"/>
-        <item x="311"/>
+        <item x="310"/>
         <item x="312"/>
-        <item x="314"/>
+        <item x="313"/>
         <item x="315"/>
         <item x="316"/>
         <item x="317"/>
@@ -9786,26 +9803,28 @@
         <item x="320"/>
         <item x="321"/>
         <item x="322"/>
-        <item x="271"/>
-        <item x="310"/>
+        <item x="323"/>
+        <item x="272"/>
+        <item x="311"/>
         <item x="56"/>
         <item x="123"/>
         <item x="124"/>
         <item x="135"/>
         <item x="151"/>
-        <item x="252"/>
-        <item x="285"/>
-        <item x="313"/>
+        <item x="253"/>
+        <item x="286"/>
+        <item x="314"/>
         <item x="18"/>
         <item x="38"/>
         <item x="54"/>
-        <item x="193"/>
-        <item x="177"/>
-        <item x="222"/>
+        <item x="194"/>
+        <item x="178"/>
+        <item x="223"/>
         <item x="21"/>
-        <item x="300"/>
-        <item x="209"/>
+        <item x="301"/>
+        <item x="210"/>
         <item x="103"/>
+        <item x="159"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -9825,11 +9844,11 @@
 
 <file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="DataPilot9" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" useAutoFormatting="0" itemPrintTitles="1" indent="0" outline="1" outlineData="1" compact="0" compactData="0">
-  <location ref="I5:J329" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <location ref="I5:J330" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField compact="0" showAll="0"/>
     <pivotField axis="axisRow" compact="0" showAll="0">
-      <items count="324">
+      <items count="325">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -9979,7 +9998,6 @@
         <item x="156"/>
         <item x="157"/>
         <item x="158"/>
-        <item x="159"/>
         <item x="160"/>
         <item x="161"/>
         <item x="162"/>
@@ -9997,7 +10015,7 @@
         <item x="174"/>
         <item x="175"/>
         <item x="176"/>
-        <item x="178"/>
+        <item x="177"/>
         <item x="179"/>
         <item x="180"/>
         <item x="181"/>
@@ -10012,7 +10030,7 @@
         <item x="190"/>
         <item x="191"/>
         <item x="192"/>
-        <item x="194"/>
+        <item x="193"/>
         <item x="195"/>
         <item x="196"/>
         <item x="197"/>
@@ -10027,7 +10045,7 @@
         <item x="206"/>
         <item x="207"/>
         <item x="208"/>
-        <item x="210"/>
+        <item x="209"/>
         <item x="211"/>
         <item x="212"/>
         <item x="213"/>
@@ -10039,7 +10057,7 @@
         <item x="219"/>
         <item x="220"/>
         <item x="221"/>
-        <item x="223"/>
+        <item x="222"/>
         <item x="224"/>
         <item x="225"/>
         <item x="226"/>
@@ -10068,7 +10086,7 @@
         <item x="249"/>
         <item x="250"/>
         <item x="251"/>
-        <item x="253"/>
+        <item x="252"/>
         <item x="254"/>
         <item x="255"/>
         <item x="256"/>
@@ -10086,7 +10104,7 @@
         <item x="268"/>
         <item x="269"/>
         <item x="270"/>
-        <item x="272"/>
+        <item x="271"/>
         <item x="273"/>
         <item x="274"/>
         <item x="275"/>
@@ -10099,7 +10117,7 @@
         <item x="282"/>
         <item x="283"/>
         <item x="284"/>
-        <item x="286"/>
+        <item x="285"/>
         <item x="287"/>
         <item x="288"/>
         <item x="289"/>
@@ -10113,7 +10131,7 @@
         <item x="297"/>
         <item x="298"/>
         <item x="299"/>
-        <item x="301"/>
+        <item x="300"/>
         <item x="302"/>
         <item x="303"/>
         <item x="304"/>
@@ -10122,9 +10140,9 @@
         <item x="307"/>
         <item x="308"/>
         <item x="309"/>
-        <item x="311"/>
+        <item x="310"/>
         <item x="312"/>
-        <item x="314"/>
+        <item x="313"/>
         <item x="315"/>
         <item x="316"/>
         <item x="317"/>
@@ -10133,26 +10151,28 @@
         <item x="320"/>
         <item x="321"/>
         <item x="322"/>
-        <item x="271"/>
-        <item x="310"/>
+        <item x="323"/>
+        <item x="272"/>
+        <item x="311"/>
         <item x="56"/>
         <item x="123"/>
         <item x="124"/>
         <item x="135"/>
         <item x="151"/>
-        <item x="252"/>
-        <item x="285"/>
-        <item x="313"/>
+        <item x="253"/>
+        <item x="286"/>
+        <item x="314"/>
         <item x="18"/>
         <item x="38"/>
         <item x="54"/>
-        <item x="193"/>
-        <item x="177"/>
-        <item x="222"/>
+        <item x="194"/>
+        <item x="178"/>
+        <item x="223"/>
         <item x="21"/>
-        <item x="300"/>
-        <item x="209"/>
+        <item x="301"/>
+        <item x="210"/>
         <item x="103"/>
+        <item x="159"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -10172,11 +10192,11 @@
 
 <file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="DataPilot10" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" useAutoFormatting="0" itemPrintTitles="1" indent="0" outline="1" outlineData="1" compact="0" compactData="0">
-  <location ref="L5:M329" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <location ref="L5:M330" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField compact="0" showAll="0"/>
     <pivotField axis="axisRow" compact="0" showAll="0">
-      <items count="324">
+      <items count="325">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -10326,7 +10346,6 @@
         <item x="156"/>
         <item x="157"/>
         <item x="158"/>
-        <item x="159"/>
         <item x="160"/>
         <item x="161"/>
         <item x="162"/>
@@ -10344,7 +10363,7 @@
         <item x="174"/>
         <item x="175"/>
         <item x="176"/>
-        <item x="178"/>
+        <item x="177"/>
         <item x="179"/>
         <item x="180"/>
         <item x="181"/>
@@ -10359,7 +10378,7 @@
         <item x="190"/>
         <item x="191"/>
         <item x="192"/>
-        <item x="194"/>
+        <item x="193"/>
         <item x="195"/>
         <item x="196"/>
         <item x="197"/>
@@ -10374,7 +10393,7 @@
         <item x="206"/>
         <item x="207"/>
         <item x="208"/>
-        <item x="210"/>
+        <item x="209"/>
         <item x="211"/>
         <item x="212"/>
         <item x="213"/>
@@ -10386,7 +10405,7 @@
         <item x="219"/>
         <item x="220"/>
         <item x="221"/>
-        <item x="223"/>
+        <item x="222"/>
         <item x="224"/>
         <item x="225"/>
         <item x="226"/>
@@ -10415,7 +10434,7 @@
         <item x="249"/>
         <item x="250"/>
         <item x="251"/>
-        <item x="253"/>
+        <item x="252"/>
         <item x="254"/>
         <item x="255"/>
         <item x="256"/>
@@ -10433,7 +10452,7 @@
         <item x="268"/>
         <item x="269"/>
         <item x="270"/>
-        <item x="272"/>
+        <item x="271"/>
         <item x="273"/>
         <item x="274"/>
         <item x="275"/>
@@ -10446,7 +10465,7 @@
         <item x="282"/>
         <item x="283"/>
         <item x="284"/>
-        <item x="286"/>
+        <item x="285"/>
         <item x="287"/>
         <item x="288"/>
         <item x="289"/>
@@ -10460,7 +10479,7 @@
         <item x="297"/>
         <item x="298"/>
         <item x="299"/>
-        <item x="301"/>
+        <item x="300"/>
         <item x="302"/>
         <item x="303"/>
         <item x="304"/>
@@ -10469,9 +10488,9 @@
         <item x="307"/>
         <item x="308"/>
         <item x="309"/>
-        <item x="311"/>
+        <item x="310"/>
         <item x="312"/>
-        <item x="314"/>
+        <item x="313"/>
         <item x="315"/>
         <item x="316"/>
         <item x="317"/>
@@ -10480,26 +10499,28 @@
         <item x="320"/>
         <item x="321"/>
         <item x="322"/>
-        <item x="271"/>
-        <item x="310"/>
+        <item x="323"/>
+        <item x="272"/>
+        <item x="311"/>
         <item x="56"/>
         <item x="123"/>
         <item x="124"/>
         <item x="135"/>
         <item x="151"/>
-        <item x="252"/>
-        <item x="285"/>
-        <item x="313"/>
+        <item x="253"/>
+        <item x="286"/>
+        <item x="314"/>
         <item x="18"/>
         <item x="38"/>
         <item x="54"/>
-        <item x="193"/>
-        <item x="177"/>
-        <item x="222"/>
+        <item x="194"/>
+        <item x="178"/>
+        <item x="223"/>
         <item x="21"/>
-        <item x="300"/>
-        <item x="209"/>
+        <item x="301"/>
+        <item x="210"/>
         <item x="103"/>
+        <item x="159"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -10519,11 +10540,11 @@
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="DataPilot12" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" useAutoFormatting="0" itemPrintTitles="1" indent="0" outline="1" outlineData="1" compact="0" compactData="0">
-  <location ref="D5:E329" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <location ref="D5:E330" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField compact="0" showAll="0"/>
     <pivotField axis="axisRow" compact="0" showAll="0">
-      <items count="324">
+      <items count="325">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -10673,7 +10694,6 @@
         <item x="156"/>
         <item x="157"/>
         <item x="158"/>
-        <item x="159"/>
         <item x="160"/>
         <item x="161"/>
         <item x="162"/>
@@ -10691,7 +10711,7 @@
         <item x="174"/>
         <item x="175"/>
         <item x="176"/>
-        <item x="178"/>
+        <item x="177"/>
         <item x="179"/>
         <item x="180"/>
         <item x="181"/>
@@ -10706,7 +10726,7 @@
         <item x="190"/>
         <item x="191"/>
         <item x="192"/>
-        <item x="194"/>
+        <item x="193"/>
         <item x="195"/>
         <item x="196"/>
         <item x="197"/>
@@ -10721,7 +10741,7 @@
         <item x="206"/>
         <item x="207"/>
         <item x="208"/>
-        <item x="210"/>
+        <item x="209"/>
         <item x="211"/>
         <item x="212"/>
         <item x="213"/>
@@ -10733,7 +10753,7 @@
         <item x="219"/>
         <item x="220"/>
         <item x="221"/>
-        <item x="223"/>
+        <item x="222"/>
         <item x="224"/>
         <item x="225"/>
         <item x="226"/>
@@ -10762,7 +10782,7 @@
         <item x="249"/>
         <item x="250"/>
         <item x="251"/>
-        <item x="253"/>
+        <item x="252"/>
         <item x="254"/>
         <item x="255"/>
         <item x="256"/>
@@ -10780,7 +10800,7 @@
         <item x="268"/>
         <item x="269"/>
         <item x="270"/>
-        <item x="272"/>
+        <item x="271"/>
         <item x="273"/>
         <item x="274"/>
         <item x="275"/>
@@ -10793,7 +10813,7 @@
         <item x="282"/>
         <item x="283"/>
         <item x="284"/>
-        <item x="286"/>
+        <item x="285"/>
         <item x="287"/>
         <item x="288"/>
         <item x="289"/>
@@ -10807,7 +10827,7 @@
         <item x="297"/>
         <item x="298"/>
         <item x="299"/>
-        <item x="301"/>
+        <item x="300"/>
         <item x="302"/>
         <item x="303"/>
         <item x="304"/>
@@ -10816,9 +10836,9 @@
         <item x="307"/>
         <item x="308"/>
         <item x="309"/>
-        <item x="311"/>
+        <item x="310"/>
         <item x="312"/>
-        <item x="314"/>
+        <item x="313"/>
         <item x="315"/>
         <item x="316"/>
         <item x="317"/>
@@ -10827,26 +10847,28 @@
         <item x="320"/>
         <item x="321"/>
         <item x="322"/>
-        <item x="271"/>
-        <item x="310"/>
+        <item x="323"/>
+        <item x="272"/>
+        <item x="311"/>
         <item x="56"/>
         <item x="123"/>
         <item x="124"/>
         <item x="135"/>
         <item x="151"/>
-        <item x="252"/>
-        <item x="285"/>
-        <item x="313"/>
+        <item x="253"/>
+        <item x="286"/>
+        <item x="314"/>
         <item x="18"/>
         <item x="38"/>
         <item x="54"/>
-        <item x="193"/>
-        <item x="177"/>
-        <item x="222"/>
+        <item x="194"/>
+        <item x="178"/>
+        <item x="223"/>
         <item x="21"/>
-        <item x="300"/>
-        <item x="209"/>
+        <item x="301"/>
+        <item x="210"/>
         <item x="103"/>
+        <item x="159"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -10866,11 +10888,11 @@
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="DataPilot13" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" useAutoFormatting="0" itemPrintTitles="1" indent="0" outline="1" outlineData="1" compact="0" compactData="0">
-  <location ref="G5:H329" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <location ref="G5:H330" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField compact="0" showAll="0"/>
     <pivotField axis="axisRow" compact="0" showAll="0">
-      <items count="324">
+      <items count="325">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -11020,7 +11042,6 @@
         <item x="156"/>
         <item x="157"/>
         <item x="158"/>
-        <item x="159"/>
         <item x="160"/>
         <item x="161"/>
         <item x="162"/>
@@ -11038,7 +11059,7 @@
         <item x="174"/>
         <item x="175"/>
         <item x="176"/>
-        <item x="178"/>
+        <item x="177"/>
         <item x="179"/>
         <item x="180"/>
         <item x="181"/>
@@ -11053,7 +11074,7 @@
         <item x="190"/>
         <item x="191"/>
         <item x="192"/>
-        <item x="194"/>
+        <item x="193"/>
         <item x="195"/>
         <item x="196"/>
         <item x="197"/>
@@ -11068,7 +11089,7 @@
         <item x="206"/>
         <item x="207"/>
         <item x="208"/>
-        <item x="210"/>
+        <item x="209"/>
         <item x="211"/>
         <item x="212"/>
         <item x="213"/>
@@ -11080,7 +11101,7 @@
         <item x="219"/>
         <item x="220"/>
         <item x="221"/>
-        <item x="223"/>
+        <item x="222"/>
         <item x="224"/>
         <item x="225"/>
         <item x="226"/>
@@ -11109,7 +11130,7 @@
         <item x="249"/>
         <item x="250"/>
         <item x="251"/>
-        <item x="253"/>
+        <item x="252"/>
         <item x="254"/>
         <item x="255"/>
         <item x="256"/>
@@ -11127,7 +11148,7 @@
         <item x="268"/>
         <item x="269"/>
         <item x="270"/>
-        <item x="272"/>
+        <item x="271"/>
         <item x="273"/>
         <item x="274"/>
         <item x="275"/>
@@ -11140,7 +11161,7 @@
         <item x="282"/>
         <item x="283"/>
         <item x="284"/>
-        <item x="286"/>
+        <item x="285"/>
         <item x="287"/>
         <item x="288"/>
         <item x="289"/>
@@ -11154,7 +11175,7 @@
         <item x="297"/>
         <item x="298"/>
         <item x="299"/>
-        <item x="301"/>
+        <item x="300"/>
         <item x="302"/>
         <item x="303"/>
         <item x="304"/>
@@ -11163,9 +11184,9 @@
         <item x="307"/>
         <item x="308"/>
         <item x="309"/>
-        <item x="311"/>
+        <item x="310"/>
         <item x="312"/>
-        <item x="314"/>
+        <item x="313"/>
         <item x="315"/>
         <item x="316"/>
         <item x="317"/>
@@ -11174,26 +11195,28 @@
         <item x="320"/>
         <item x="321"/>
         <item x="322"/>
-        <item x="271"/>
-        <item x="310"/>
+        <item x="323"/>
+        <item x="272"/>
+        <item x="311"/>
         <item x="56"/>
         <item x="123"/>
         <item x="124"/>
         <item x="135"/>
         <item x="151"/>
-        <item x="252"/>
-        <item x="285"/>
-        <item x="313"/>
+        <item x="253"/>
+        <item x="286"/>
+        <item x="314"/>
         <item x="18"/>
         <item x="38"/>
         <item x="54"/>
-        <item x="193"/>
-        <item x="177"/>
-        <item x="222"/>
+        <item x="194"/>
+        <item x="178"/>
+        <item x="223"/>
         <item x="21"/>
-        <item x="300"/>
-        <item x="209"/>
+        <item x="301"/>
+        <item x="210"/>
         <item x="103"/>
+        <item x="159"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -11213,11 +11236,11 @@
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="DataPilot14" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" useAutoFormatting="0" itemPrintTitles="1" indent="0" outline="1" outlineData="1" compact="0" compactData="0">
-  <location ref="J5:K329" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <location ref="J5:K330" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField compact="0" showAll="0"/>
     <pivotField axis="axisRow" compact="0" showAll="0">
-      <items count="324">
+      <items count="325">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -11367,7 +11390,6 @@
         <item x="156"/>
         <item x="157"/>
         <item x="158"/>
-        <item x="159"/>
         <item x="160"/>
         <item x="161"/>
         <item x="162"/>
@@ -11385,7 +11407,7 @@
         <item x="174"/>
         <item x="175"/>
         <item x="176"/>
-        <item x="178"/>
+        <item x="177"/>
         <item x="179"/>
         <item x="180"/>
         <item x="181"/>
@@ -11400,7 +11422,7 @@
         <item x="190"/>
         <item x="191"/>
         <item x="192"/>
-        <item x="194"/>
+        <item x="193"/>
         <item x="195"/>
         <item x="196"/>
         <item x="197"/>
@@ -11415,7 +11437,7 @@
         <item x="206"/>
         <item x="207"/>
         <item x="208"/>
-        <item x="210"/>
+        <item x="209"/>
         <item x="211"/>
         <item x="212"/>
         <item x="213"/>
@@ -11427,7 +11449,7 @@
         <item x="219"/>
         <item x="220"/>
         <item x="221"/>
-        <item x="223"/>
+        <item x="222"/>
         <item x="224"/>
         <item x="225"/>
         <item x="226"/>
@@ -11456,7 +11478,7 @@
         <item x="249"/>
         <item x="250"/>
         <item x="251"/>
-        <item x="253"/>
+        <item x="252"/>
         <item x="254"/>
         <item x="255"/>
         <item x="256"/>
@@ -11474,7 +11496,7 @@
         <item x="268"/>
         <item x="269"/>
         <item x="270"/>
-        <item x="272"/>
+        <item x="271"/>
         <item x="273"/>
         <item x="274"/>
         <item x="275"/>
@@ -11487,7 +11509,7 @@
         <item x="282"/>
         <item x="283"/>
         <item x="284"/>
-        <item x="286"/>
+        <item x="285"/>
         <item x="287"/>
         <item x="288"/>
         <item x="289"/>
@@ -11501,7 +11523,7 @@
         <item x="297"/>
         <item x="298"/>
         <item x="299"/>
-        <item x="301"/>
+        <item x="300"/>
         <item x="302"/>
         <item x="303"/>
         <item x="304"/>
@@ -11510,9 +11532,9 @@
         <item x="307"/>
         <item x="308"/>
         <item x="309"/>
-        <item x="311"/>
+        <item x="310"/>
         <item x="312"/>
-        <item x="314"/>
+        <item x="313"/>
         <item x="315"/>
         <item x="316"/>
         <item x="317"/>
@@ -11521,26 +11543,28 @@
         <item x="320"/>
         <item x="321"/>
         <item x="322"/>
-        <item x="271"/>
-        <item x="310"/>
+        <item x="323"/>
+        <item x="272"/>
+        <item x="311"/>
         <item x="56"/>
         <item x="123"/>
         <item x="124"/>
         <item x="135"/>
         <item x="151"/>
-        <item x="252"/>
-        <item x="285"/>
-        <item x="313"/>
+        <item x="253"/>
+        <item x="286"/>
+        <item x="314"/>
         <item x="18"/>
         <item x="38"/>
         <item x="54"/>
-        <item x="193"/>
-        <item x="177"/>
-        <item x="222"/>
+        <item x="194"/>
+        <item x="178"/>
+        <item x="223"/>
         <item x="21"/>
-        <item x="300"/>
-        <item x="209"/>
+        <item x="301"/>
+        <item x="210"/>
         <item x="103"/>
+        <item x="159"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -11560,11 +11584,11 @@
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="DataPilot15" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" useAutoFormatting="0" itemPrintTitles="1" indent="0" outline="1" outlineData="1" compact="0" compactData="0">
-  <location ref="M5:N329" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <location ref="M5:N330" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField compact="0" showAll="0"/>
     <pivotField axis="axisRow" compact="0" showAll="0">
-      <items count="324">
+      <items count="325">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -11714,7 +11738,6 @@
         <item x="156"/>
         <item x="157"/>
         <item x="158"/>
-        <item x="159"/>
         <item x="160"/>
         <item x="161"/>
         <item x="162"/>
@@ -11732,7 +11755,7 @@
         <item x="174"/>
         <item x="175"/>
         <item x="176"/>
-        <item x="178"/>
+        <item x="177"/>
         <item x="179"/>
         <item x="180"/>
         <item x="181"/>
@@ -11747,7 +11770,7 @@
         <item x="190"/>
         <item x="191"/>
         <item x="192"/>
-        <item x="194"/>
+        <item x="193"/>
         <item x="195"/>
         <item x="196"/>
         <item x="197"/>
@@ -11762,7 +11785,7 @@
         <item x="206"/>
         <item x="207"/>
         <item x="208"/>
-        <item x="210"/>
+        <item x="209"/>
         <item x="211"/>
         <item x="212"/>
         <item x="213"/>
@@ -11774,7 +11797,7 @@
         <item x="219"/>
         <item x="220"/>
         <item x="221"/>
-        <item x="223"/>
+        <item x="222"/>
         <item x="224"/>
         <item x="225"/>
         <item x="226"/>
@@ -11803,7 +11826,7 @@
         <item x="249"/>
         <item x="250"/>
         <item x="251"/>
-        <item x="253"/>
+        <item x="252"/>
         <item x="254"/>
         <item x="255"/>
         <item x="256"/>
@@ -11821,7 +11844,7 @@
         <item x="268"/>
         <item x="269"/>
         <item x="270"/>
-        <item x="272"/>
+        <item x="271"/>
         <item x="273"/>
         <item x="274"/>
         <item x="275"/>
@@ -11834,7 +11857,7 @@
         <item x="282"/>
         <item x="283"/>
         <item x="284"/>
-        <item x="286"/>
+        <item x="285"/>
         <item x="287"/>
         <item x="288"/>
         <item x="289"/>
@@ -11848,7 +11871,7 @@
         <item x="297"/>
         <item x="298"/>
         <item x="299"/>
-        <item x="301"/>
+        <item x="300"/>
         <item x="302"/>
         <item x="303"/>
         <item x="304"/>
@@ -11857,9 +11880,9 @@
         <item x="307"/>
         <item x="308"/>
         <item x="309"/>
-        <item x="311"/>
+        <item x="310"/>
         <item x="312"/>
-        <item x="314"/>
+        <item x="313"/>
         <item x="315"/>
         <item x="316"/>
         <item x="317"/>
@@ -11868,26 +11891,28 @@
         <item x="320"/>
         <item x="321"/>
         <item x="322"/>
-        <item x="271"/>
-        <item x="310"/>
+        <item x="323"/>
+        <item x="272"/>
+        <item x="311"/>
         <item x="56"/>
         <item x="123"/>
         <item x="124"/>
         <item x="135"/>
         <item x="151"/>
-        <item x="252"/>
-        <item x="285"/>
-        <item x="313"/>
+        <item x="253"/>
+        <item x="286"/>
+        <item x="314"/>
         <item x="18"/>
         <item x="38"/>
         <item x="54"/>
-        <item x="193"/>
-        <item x="177"/>
-        <item x="222"/>
+        <item x="194"/>
+        <item x="178"/>
+        <item x="223"/>
         <item x="21"/>
-        <item x="300"/>
-        <item x="209"/>
+        <item x="301"/>
+        <item x="210"/>
         <item x="103"/>
+        <item x="159"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -11907,11 +11932,11 @@
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="DataPilot16" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" useAutoFormatting="0" itemPrintTitles="1" indent="0" outline="1" outlineData="1" compact="0" compactData="0">
-  <location ref="P5:Q329" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <location ref="P5:Q330" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField compact="0" showAll="0"/>
     <pivotField axis="axisRow" compact="0" showAll="0">
-      <items count="324">
+      <items count="325">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -12061,7 +12086,6 @@
         <item x="156"/>
         <item x="157"/>
         <item x="158"/>
-        <item x="159"/>
         <item x="160"/>
         <item x="161"/>
         <item x="162"/>
@@ -12079,7 +12103,7 @@
         <item x="174"/>
         <item x="175"/>
         <item x="176"/>
-        <item x="178"/>
+        <item x="177"/>
         <item x="179"/>
         <item x="180"/>
         <item x="181"/>
@@ -12094,7 +12118,7 @@
         <item x="190"/>
         <item x="191"/>
         <item x="192"/>
-        <item x="194"/>
+        <item x="193"/>
         <item x="195"/>
         <item x="196"/>
         <item x="197"/>
@@ -12109,7 +12133,7 @@
         <item x="206"/>
         <item x="207"/>
         <item x="208"/>
-        <item x="210"/>
+        <item x="209"/>
         <item x="211"/>
         <item x="212"/>
         <item x="213"/>
@@ -12121,7 +12145,7 @@
         <item x="219"/>
         <item x="220"/>
         <item x="221"/>
-        <item x="223"/>
+        <item x="222"/>
         <item x="224"/>
         <item x="225"/>
         <item x="226"/>
@@ -12150,7 +12174,7 @@
         <item x="249"/>
         <item x="250"/>
         <item x="251"/>
-        <item x="253"/>
+        <item x="252"/>
         <item x="254"/>
         <item x="255"/>
         <item x="256"/>
@@ -12168,7 +12192,7 @@
         <item x="268"/>
         <item x="269"/>
         <item x="270"/>
-        <item x="272"/>
+        <item x="271"/>
         <item x="273"/>
         <item x="274"/>
         <item x="275"/>
@@ -12181,7 +12205,7 @@
         <item x="282"/>
         <item x="283"/>
         <item x="284"/>
-        <item x="286"/>
+        <item x="285"/>
         <item x="287"/>
         <item x="288"/>
         <item x="289"/>
@@ -12195,7 +12219,7 @@
         <item x="297"/>
         <item x="298"/>
         <item x="299"/>
-        <item x="301"/>
+        <item x="300"/>
         <item x="302"/>
         <item x="303"/>
         <item x="304"/>
@@ -12204,9 +12228,9 @@
         <item x="307"/>
         <item x="308"/>
         <item x="309"/>
-        <item x="311"/>
+        <item x="310"/>
         <item x="312"/>
-        <item x="314"/>
+        <item x="313"/>
         <item x="315"/>
         <item x="316"/>
         <item x="317"/>
@@ -12215,26 +12239,28 @@
         <item x="320"/>
         <item x="321"/>
         <item x="322"/>
-        <item x="271"/>
-        <item x="310"/>
+        <item x="323"/>
+        <item x="272"/>
+        <item x="311"/>
         <item x="56"/>
         <item x="123"/>
         <item x="124"/>
         <item x="135"/>
         <item x="151"/>
-        <item x="252"/>
-        <item x="285"/>
-        <item x="313"/>
+        <item x="253"/>
+        <item x="286"/>
+        <item x="314"/>
         <item x="18"/>
         <item x="38"/>
         <item x="54"/>
-        <item x="193"/>
-        <item x="177"/>
-        <item x="222"/>
+        <item x="194"/>
+        <item x="178"/>
+        <item x="223"/>
         <item x="21"/>
-        <item x="300"/>
-        <item x="209"/>
+        <item x="301"/>
+        <item x="210"/>
         <item x="103"/>
+        <item x="159"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -12254,11 +12280,11 @@
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="DataPilot17" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" useAutoFormatting="0" itemPrintTitles="1" indent="0" outline="1" outlineData="1" compact="0" compactData="0">
-  <location ref="S5:T329" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <location ref="S5:T330" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField compact="0" showAll="0"/>
     <pivotField axis="axisRow" compact="0" showAll="0">
-      <items count="324">
+      <items count="325">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -12408,7 +12434,6 @@
         <item x="156"/>
         <item x="157"/>
         <item x="158"/>
-        <item x="159"/>
         <item x="160"/>
         <item x="161"/>
         <item x="162"/>
@@ -12426,7 +12451,7 @@
         <item x="174"/>
         <item x="175"/>
         <item x="176"/>
-        <item x="178"/>
+        <item x="177"/>
         <item x="179"/>
         <item x="180"/>
         <item x="181"/>
@@ -12441,7 +12466,7 @@
         <item x="190"/>
         <item x="191"/>
         <item x="192"/>
-        <item x="194"/>
+        <item x="193"/>
         <item x="195"/>
         <item x="196"/>
         <item x="197"/>
@@ -12456,7 +12481,7 @@
         <item x="206"/>
         <item x="207"/>
         <item x="208"/>
-        <item x="210"/>
+        <item x="209"/>
         <item x="211"/>
         <item x="212"/>
         <item x="213"/>
@@ -12468,7 +12493,7 @@
         <item x="219"/>
         <item x="220"/>
         <item x="221"/>
-        <item x="223"/>
+        <item x="222"/>
         <item x="224"/>
         <item x="225"/>
         <item x="226"/>
@@ -12497,7 +12522,7 @@
         <item x="249"/>
         <item x="250"/>
         <item x="251"/>
-        <item x="253"/>
+        <item x="252"/>
         <item x="254"/>
         <item x="255"/>
         <item x="256"/>
@@ -12515,7 +12540,7 @@
         <item x="268"/>
         <item x="269"/>
         <item x="270"/>
-        <item x="272"/>
+        <item x="271"/>
         <item x="273"/>
         <item x="274"/>
         <item x="275"/>
@@ -12528,7 +12553,7 @@
         <item x="282"/>
         <item x="283"/>
         <item x="284"/>
-        <item x="286"/>
+        <item x="285"/>
         <item x="287"/>
         <item x="288"/>
         <item x="289"/>
@@ -12542,7 +12567,7 @@
         <item x="297"/>
         <item x="298"/>
         <item x="299"/>
-        <item x="301"/>
+        <item x="300"/>
         <item x="302"/>
         <item x="303"/>
         <item x="304"/>
@@ -12551,9 +12576,9 @@
         <item x="307"/>
         <item x="308"/>
         <item x="309"/>
-        <item x="311"/>
+        <item x="310"/>
         <item x="312"/>
-        <item x="314"/>
+        <item x="313"/>
         <item x="315"/>
         <item x="316"/>
         <item x="317"/>
@@ -12562,26 +12587,28 @@
         <item x="320"/>
         <item x="321"/>
         <item x="322"/>
-        <item x="271"/>
-        <item x="310"/>
+        <item x="323"/>
+        <item x="272"/>
+        <item x="311"/>
         <item x="56"/>
         <item x="123"/>
         <item x="124"/>
         <item x="135"/>
         <item x="151"/>
-        <item x="252"/>
-        <item x="285"/>
-        <item x="313"/>
+        <item x="253"/>
+        <item x="286"/>
+        <item x="314"/>
         <item x="18"/>
         <item x="38"/>
         <item x="54"/>
-        <item x="193"/>
-        <item x="177"/>
-        <item x="222"/>
+        <item x="194"/>
+        <item x="178"/>
+        <item x="223"/>
         <item x="21"/>
-        <item x="300"/>
-        <item x="209"/>
+        <item x="301"/>
+        <item x="210"/>
         <item x="103"/>
+        <item x="159"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -12601,11 +12628,11 @@
 
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="DataPilot3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" useAutoFormatting="0" itemPrintTitles="1" indent="0" outline="1" outlineData="1" compact="0" compactData="0">
-  <location ref="A5:B329" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <location ref="A5:B330" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField compact="0" showAll="0"/>
     <pivotField axis="axisRow" compact="0" showAll="0">
-      <items count="324">
+      <items count="325">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -12755,7 +12782,6 @@
         <item x="156"/>
         <item x="157"/>
         <item x="158"/>
-        <item x="159"/>
         <item x="160"/>
         <item x="161"/>
         <item x="162"/>
@@ -12773,7 +12799,7 @@
         <item x="174"/>
         <item x="175"/>
         <item x="176"/>
-        <item x="178"/>
+        <item x="177"/>
         <item x="179"/>
         <item x="180"/>
         <item x="181"/>
@@ -12788,7 +12814,7 @@
         <item x="190"/>
         <item x="191"/>
         <item x="192"/>
-        <item x="194"/>
+        <item x="193"/>
         <item x="195"/>
         <item x="196"/>
         <item x="197"/>
@@ -12803,7 +12829,7 @@
         <item x="206"/>
         <item x="207"/>
         <item x="208"/>
-        <item x="210"/>
+        <item x="209"/>
         <item x="211"/>
         <item x="212"/>
         <item x="213"/>
@@ -12815,7 +12841,7 @@
         <item x="219"/>
         <item x="220"/>
         <item x="221"/>
-        <item x="223"/>
+        <item x="222"/>
         <item x="224"/>
         <item x="225"/>
         <item x="226"/>
@@ -12844,7 +12870,7 @@
         <item x="249"/>
         <item x="250"/>
         <item x="251"/>
-        <item x="253"/>
+        <item x="252"/>
         <item x="254"/>
         <item x="255"/>
         <item x="256"/>
@@ -12862,7 +12888,7 @@
         <item x="268"/>
         <item x="269"/>
         <item x="270"/>
-        <item x="272"/>
+        <item x="271"/>
         <item x="273"/>
         <item x="274"/>
         <item x="275"/>
@@ -12875,7 +12901,7 @@
         <item x="282"/>
         <item x="283"/>
         <item x="284"/>
-        <item x="286"/>
+        <item x="285"/>
         <item x="287"/>
         <item x="288"/>
         <item x="289"/>
@@ -12889,7 +12915,7 @@
         <item x="297"/>
         <item x="298"/>
         <item x="299"/>
-        <item x="301"/>
+        <item x="300"/>
         <item x="302"/>
         <item x="303"/>
         <item x="304"/>
@@ -12898,9 +12924,9 @@
         <item x="307"/>
         <item x="308"/>
         <item x="309"/>
-        <item x="311"/>
+        <item x="310"/>
         <item x="312"/>
-        <item x="314"/>
+        <item x="313"/>
         <item x="315"/>
         <item x="316"/>
         <item x="317"/>
@@ -12909,26 +12935,28 @@
         <item x="320"/>
         <item x="321"/>
         <item x="322"/>
-        <item x="271"/>
-        <item x="310"/>
+        <item x="323"/>
+        <item x="272"/>
+        <item x="311"/>
         <item x="56"/>
         <item x="123"/>
         <item x="124"/>
         <item x="135"/>
         <item x="151"/>
-        <item x="252"/>
-        <item x="285"/>
-        <item x="313"/>
+        <item x="253"/>
+        <item x="286"/>
+        <item x="314"/>
         <item x="18"/>
         <item x="38"/>
         <item x="54"/>
-        <item x="193"/>
-        <item x="177"/>
-        <item x="222"/>
+        <item x="194"/>
+        <item x="178"/>
+        <item x="223"/>
         <item x="21"/>
-        <item x="300"/>
-        <item x="209"/>
+        <item x="301"/>
+        <item x="210"/>
         <item x="103"/>
+        <item x="159"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -12948,11 +12976,11 @@
 
 <file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="DataPilot4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" useAutoFormatting="0" itemPrintTitles="1" indent="0" outline="1" outlineData="1" compact="0" compactData="0">
-  <location ref="D5:E329" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <location ref="D5:E330" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField compact="0" showAll="0"/>
     <pivotField axis="axisRow" compact="0" showAll="0">
-      <items count="324">
+      <items count="325">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -13102,7 +13130,6 @@
         <item x="156"/>
         <item x="157"/>
         <item x="158"/>
-        <item x="159"/>
         <item x="160"/>
         <item x="161"/>
         <item x="162"/>
@@ -13120,7 +13147,7 @@
         <item x="174"/>
         <item x="175"/>
         <item x="176"/>
-        <item x="178"/>
+        <item x="177"/>
         <item x="179"/>
         <item x="180"/>
         <item x="181"/>
@@ -13135,7 +13162,7 @@
         <item x="190"/>
         <item x="191"/>
         <item x="192"/>
-        <item x="194"/>
+        <item x="193"/>
         <item x="195"/>
         <item x="196"/>
         <item x="197"/>
@@ -13150,7 +13177,7 @@
         <item x="206"/>
         <item x="207"/>
         <item x="208"/>
-        <item x="210"/>
+        <item x="209"/>
         <item x="211"/>
         <item x="212"/>
         <item x="213"/>
@@ -13162,7 +13189,7 @@
         <item x="219"/>
         <item x="220"/>
         <item x="221"/>
-        <item x="223"/>
+        <item x="222"/>
         <item x="224"/>
         <item x="225"/>
         <item x="226"/>
@@ -13191,7 +13218,7 @@
         <item x="249"/>
         <item x="250"/>
         <item x="251"/>
-        <item x="253"/>
+        <item x="252"/>
         <item x="254"/>
         <item x="255"/>
         <item x="256"/>
@@ -13209,7 +13236,7 @@
         <item x="268"/>
         <item x="269"/>
         <item x="270"/>
-        <item x="272"/>
+        <item x="271"/>
         <item x="273"/>
         <item x="274"/>
         <item x="275"/>
@@ -13222,7 +13249,7 @@
         <item x="282"/>
         <item x="283"/>
         <item x="284"/>
-        <item x="286"/>
+        <item x="285"/>
         <item x="287"/>
         <item x="288"/>
         <item x="289"/>
@@ -13236,7 +13263,7 @@
         <item x="297"/>
         <item x="298"/>
         <item x="299"/>
-        <item x="301"/>
+        <item x="300"/>
         <item x="302"/>
         <item x="303"/>
         <item x="304"/>
@@ -13245,9 +13272,9 @@
         <item x="307"/>
         <item x="308"/>
         <item x="309"/>
-        <item x="311"/>
+        <item x="310"/>
         <item x="312"/>
-        <item x="314"/>
+        <item x="313"/>
         <item x="315"/>
         <item x="316"/>
         <item x="317"/>
@@ -13256,26 +13283,28 @@
         <item x="320"/>
         <item x="321"/>
         <item x="322"/>
-        <item x="271"/>
-        <item x="310"/>
+        <item x="323"/>
+        <item x="272"/>
+        <item x="311"/>
         <item x="56"/>
         <item x="123"/>
         <item x="124"/>
         <item x="135"/>
         <item x="151"/>
-        <item x="252"/>
-        <item x="285"/>
-        <item x="313"/>
+        <item x="253"/>
+        <item x="286"/>
+        <item x="314"/>
         <item x="18"/>
         <item x="38"/>
         <item x="54"/>
-        <item x="193"/>
-        <item x="177"/>
-        <item x="222"/>
+        <item x="194"/>
+        <item x="178"/>
+        <item x="223"/>
         <item x="21"/>
-        <item x="300"/>
-        <item x="209"/>
+        <item x="301"/>
+        <item x="210"/>
         <item x="103"/>
+        <item x="159"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -13300,13 +13329,13 @@
   </sheetPr>
   <dimension ref="A1:AMJ329"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="B297" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B331" activeCellId="0" sqref="B331"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="B201" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="G220" activeCellId="0" sqref="G220"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.95"/>
@@ -20876,9 +20905,11 @@
         <v>18</v>
       </c>
       <c r="J206" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K206" s="5"/>
+        <v>242</v>
+      </c>
+      <c r="K206" s="5" t="n">
+        <v>0</v>
+      </c>
       <c r="L206" s="6" t="n">
         <v>2</v>
       </c>
@@ -20913,9 +20944,11 @@
         <v>18</v>
       </c>
       <c r="J207" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K207" s="5"/>
+        <v>242</v>
+      </c>
+      <c r="K207" s="5" t="n">
+        <v>0</v>
+      </c>
       <c r="L207" s="6" t="n">
         <v>2</v>
       </c>
@@ -25407,13 +25440,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T329"/>
+  <dimension ref="A1:T330"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="S3" activeCellId="0" sqref="S3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.24"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="3" min="2" style="0" width="11.52"/>
@@ -35197,61 +35230,91 @@
       <c r="A328" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="B328" s="22"/>
+      <c r="B328" s="21"/>
       <c r="D328" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="E328" s="22"/>
+      <c r="E328" s="21"/>
       <c r="G328" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="H328" s="22"/>
+      <c r="H328" s="21"/>
       <c r="J328" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="K328" s="22"/>
+      <c r="K328" s="21"/>
       <c r="M328" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="N328" s="22"/>
+      <c r="N328" s="21"/>
       <c r="P328" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="Q328" s="22"/>
+      <c r="Q328" s="21"/>
       <c r="S328" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="T328" s="22"/>
+      <c r="T328" s="21"/>
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A329" s="23" t="s">
+      <c r="A329" s="20" t="s">
+        <v>543</v>
+      </c>
+      <c r="B329" s="22"/>
+      <c r="D329" s="20" t="s">
+        <v>543</v>
+      </c>
+      <c r="E329" s="22"/>
+      <c r="G329" s="20" t="s">
+        <v>543</v>
+      </c>
+      <c r="H329" s="22"/>
+      <c r="J329" s="20" t="s">
+        <v>543</v>
+      </c>
+      <c r="K329" s="22"/>
+      <c r="M329" s="20" t="s">
+        <v>543</v>
+      </c>
+      <c r="N329" s="22"/>
+      <c r="P329" s="20" t="s">
+        <v>543</v>
+      </c>
+      <c r="Q329" s="22"/>
+      <c r="S329" s="20" t="s">
+        <v>543</v>
+      </c>
+      <c r="T329" s="22"/>
+    </row>
+    <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A330" s="23" t="s">
         <v>1007</v>
       </c>
-      <c r="B329" s="24"/>
-      <c r="D329" s="23" t="s">
+      <c r="B330" s="24"/>
+      <c r="D330" s="23" t="s">
         <v>1007</v>
       </c>
-      <c r="E329" s="24"/>
-      <c r="G329" s="23" t="s">
+      <c r="E330" s="24"/>
+      <c r="G330" s="23" t="s">
         <v>1007</v>
       </c>
-      <c r="H329" s="24"/>
-      <c r="J329" s="23" t="s">
+      <c r="H330" s="24"/>
+      <c r="J330" s="23" t="s">
         <v>1007</v>
       </c>
-      <c r="K329" s="24"/>
-      <c r="M329" s="23" t="s">
+      <c r="K330" s="24"/>
+      <c r="M330" s="23" t="s">
         <v>1007</v>
       </c>
-      <c r="N329" s="24"/>
-      <c r="P329" s="23" t="s">
+      <c r="N330" s="24"/>
+      <c r="P330" s="23" t="s">
         <v>1007</v>
       </c>
-      <c r="Q329" s="24"/>
-      <c r="S329" s="23" t="s">
+      <c r="Q330" s="24"/>
+      <c r="S330" s="23" t="s">
         <v>1007</v>
       </c>
-      <c r="T329" s="24"/>
+      <c r="T330" s="24"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -35275,7 +35338,7 @@
       <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="1" style="0" width="25.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="31.69"/>
@@ -36428,13 +36491,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M339"/>
+  <dimension ref="A1:M340"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I28" activeCellId="0" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.24"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="2" min="2" style="0" width="11.52"/>
@@ -44260,75 +44323,93 @@
       <c r="A328" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="B328" s="22"/>
+      <c r="B328" s="21"/>
       <c r="C328" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="D328" s="22"/>
+      <c r="D328" s="21"/>
       <c r="E328" s="21"/>
       <c r="F328" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="G328" s="22"/>
+      <c r="G328" s="21"/>
       <c r="H328" s="21"/>
       <c r="I328" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="J328" s="22"/>
+      <c r="J328" s="21"/>
       <c r="L328" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="M328" s="22"/>
+      <c r="M328" s="21"/>
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A329" s="23" t="s">
+      <c r="A329" s="20" t="s">
+        <v>543</v>
+      </c>
+      <c r="B329" s="22"/>
+      <c r="C329" s="20" t="s">
+        <v>543</v>
+      </c>
+      <c r="D329" s="22"/>
+      <c r="E329" s="21"/>
+      <c r="F329" s="20" t="s">
+        <v>543</v>
+      </c>
+      <c r="G329" s="22"/>
+      <c r="H329" s="21"/>
+      <c r="I329" s="20" t="s">
+        <v>543</v>
+      </c>
+      <c r="J329" s="22"/>
+      <c r="L329" s="20" t="s">
+        <v>543</v>
+      </c>
+      <c r="M329" s="22"/>
+    </row>
+    <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A330" s="23" t="s">
         <v>1007</v>
       </c>
-      <c r="B329" s="24"/>
-      <c r="C329" s="23" t="s">
+      <c r="B330" s="24"/>
+      <c r="C330" s="23" t="s">
         <v>1007</v>
       </c>
-      <c r="D329" s="24"/>
-      <c r="E329" s="21"/>
-      <c r="F329" s="23" t="s">
+      <c r="D330" s="24"/>
+      <c r="E330" s="21"/>
+      <c r="F330" s="23" t="s">
         <v>1007</v>
       </c>
-      <c r="G329" s="24"/>
-      <c r="H329" s="21"/>
-      <c r="I329" s="23" t="s">
+      <c r="G330" s="24"/>
+      <c r="H330" s="21"/>
+      <c r="I330" s="23" t="s">
         <v>1007</v>
       </c>
-      <c r="J329" s="24"/>
-      <c r="L329" s="23" t="s">
+      <c r="J330" s="24"/>
+      <c r="L330" s="23" t="s">
         <v>1007</v>
       </c>
-      <c r="M329" s="24"/>
-    </row>
-    <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D330" s="20" t="s">
-        <v>722</v>
-      </c>
-      <c r="E330" s="21"/>
-      <c r="G330" s="20" t="s">
-        <v>694</v>
-      </c>
-      <c r="H330" s="22"/>
+      <c r="M330" s="24"/>
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D331" s="20" t="s">
         <v>838</v>
       </c>
       <c r="E331" s="21"/>
-      <c r="G331" s="23" t="s">
-        <v>1007</v>
-      </c>
-      <c r="H331" s="24"/>
+      <c r="G331" s="20" t="s">
+        <v>543</v>
+      </c>
+      <c r="H331" s="22"/>
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D332" s="20" t="s">
         <v>804</v>
       </c>
       <c r="E332" s="21"/>
+      <c r="G332" s="23" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H332" s="24"/>
     </row>
     <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D333" s="20" t="s">
@@ -44364,13 +44445,19 @@
       <c r="D338" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="E338" s="22"/>
+      <c r="E338" s="21"/>
     </row>
     <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D339" s="23" t="s">
+      <c r="D339" s="20" t="s">
+        <v>543</v>
+      </c>
+      <c r="E339" s="22"/>
+    </row>
+    <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D340" s="23" t="s">
         <v>1007</v>
       </c>
-      <c r="E339" s="24"/>
+      <c r="E340" s="24"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
